--- a/koston/data/koston.xlsx
+++ b/koston/data/koston.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jared.wilber\Desktop\jenkem_data\koston\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3541180A-F2DD-4B8C-97AF-85B9C89E717B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AF2448-E71A-453A-BC2A-DA7AF9D844DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5644D466-66B3-4E17-B94A-2921DC353073}"/>
+    <workbookView xWindow="2240" yWindow="1800" windowWidth="14400" windowHeight="7360" xr2:uid="{5644D466-66B3-4E17-B94A-2921DC353073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
   <si>
     <t>clip_index</t>
   </si>
@@ -205,6 +205,93 @@
   </si>
   <si>
     <t>101 - WWII Report</t>
+  </si>
+  <si>
+    <t>backside flip</t>
+  </si>
+  <si>
+    <t>Union - Right to Skate</t>
+  </si>
+  <si>
+    <t>switch varial</t>
+  </si>
+  <si>
+    <t>fs 5-0 to switch crook</t>
+  </si>
+  <si>
+    <t>switch hardflip</t>
+  </si>
+  <si>
+    <t>switch bs noseslide 270</t>
+  </si>
+  <si>
+    <t>halfcab to noseslide to nosegrind to regular</t>
+  </si>
+  <si>
+    <t>nollie bs flip</t>
+  </si>
+  <si>
+    <t>bs tailslide</t>
+  </si>
+  <si>
+    <t>fs 180 nosegrind to noseslide to fakie</t>
+  </si>
+  <si>
+    <t>nollie noseslide to fakie</t>
+  </si>
+  <si>
+    <t>switch fs tailslide</t>
+  </si>
+  <si>
+    <t>nollie bs 180 to fakie 5-0</t>
+  </si>
+  <si>
+    <t>fs 5-0 to fs noseslide</t>
+  </si>
+  <si>
+    <t>switch bs noseslide 270 popover</t>
+  </si>
+  <si>
+    <t>switch bs flip</t>
+  </si>
+  <si>
+    <t>flatgap</t>
+  </si>
+  <si>
+    <t>switch big flip</t>
+  </si>
+  <si>
+    <t>bs tailslide to fakie</t>
+  </si>
+  <si>
+    <t>shootout</t>
+  </si>
+  <si>
+    <t>bs tailslide to fakie 5-0 to fakie</t>
+  </si>
+  <si>
+    <t>nollie fs tailslide</t>
+  </si>
+  <si>
+    <t>kickflip bs nosedlide to fakie</t>
+  </si>
+  <si>
+    <t>fs flip to switch manual to regular</t>
+  </si>
+  <si>
+    <t>melon grab</t>
+  </si>
+  <si>
+    <t>nollie fs 180</t>
+  </si>
+  <si>
+    <t>bs darkslide</t>
+  </si>
+  <si>
+    <t>halfcab heelflip to noseslide to fakie</t>
+  </si>
+  <si>
+    <t>switch flip bs tail</t>
   </si>
 </sst>
 </file>
@@ -556,11 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA88418-AAB9-4F27-A456-87056BC11CAB}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,6 +1359,651 @@
         <v>57</v>
       </c>
     </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>17</v>
+      </c>
+      <c r="B57">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>18</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>21</v>
+      </c>
+      <c r="B61">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>23</v>
+      </c>
+      <c r="B63">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>52</v>
+      </c>
+      <c r="J64" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/koston/data/koston.xlsx
+++ b/koston/data/koston.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jared.wilber\Desktop\jenkem_data\koston\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AF2448-E71A-453A-BC2A-DA7AF9D844DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29DD721-6B73-4F75-99B0-AA6168B27B8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="1800" windowWidth="14400" windowHeight="7360" xr2:uid="{5644D466-66B3-4E17-B94A-2921DC353073}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="135">
   <si>
     <t>clip_index</t>
   </si>
@@ -292,6 +292,150 @@
   </si>
   <si>
     <t>switch flip bs tail</t>
+  </si>
+  <si>
+    <t>ollie</t>
+  </si>
+  <si>
+    <t>over rail</t>
+  </si>
+  <si>
+    <t>H-Street - Next Generation</t>
+  </si>
+  <si>
+    <t>fs boardslide</t>
+  </si>
+  <si>
+    <t>fs lipslide to fakie</t>
+  </si>
+  <si>
+    <t>fs 180 nosegrind to regular</t>
+  </si>
+  <si>
+    <t>bank to rail</t>
+  </si>
+  <si>
+    <t>impossible to fs noseblunt</t>
+  </si>
+  <si>
+    <t>bs noseblunt revert</t>
+  </si>
+  <si>
+    <t>fs ollie</t>
+  </si>
+  <si>
+    <t>quarterpipe</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>switch bs bigspin to biggerspin</t>
+  </si>
+  <si>
+    <t>fs 5-0 to tailslide shuv-it to fakie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs blunt bs 270 </t>
+  </si>
+  <si>
+    <t>nosemanual revert to switch manual to regular</t>
+  </si>
+  <si>
+    <t>fs 360 tailgrab</t>
+  </si>
+  <si>
+    <t>bs 180 360 body varial</t>
+  </si>
+  <si>
+    <t>bs 360 shuv lateflip to fakie</t>
+  </si>
+  <si>
+    <t>switch bs boardslide 270 out</t>
+  </si>
+  <si>
+    <t>bs boardslide to fakie</t>
+  </si>
+  <si>
+    <t>handrail, kinker</t>
+  </si>
+  <si>
+    <t>varial heelflip</t>
+  </si>
+  <si>
+    <t>pyramid</t>
+  </si>
+  <si>
+    <t>caballerial to bs lipslide to sugarcane to fakie</t>
+  </si>
+  <si>
+    <t>bs 360 nosegrind tailgrab revert</t>
+  </si>
+  <si>
+    <t>vert</t>
+  </si>
+  <si>
+    <t>bs feeble to 5-0 to shuv it</t>
+  </si>
+  <si>
+    <t>pressure flip to bs noseslide to fakie</t>
+  </si>
+  <si>
+    <t>pressure flip to bs noseslide to shuv-it</t>
+  </si>
+  <si>
+    <t>fakie fs nosebluntside revert</t>
+  </si>
+  <si>
+    <t>bs 540</t>
+  </si>
+  <si>
+    <t>fs blunt</t>
+  </si>
+  <si>
+    <t>nollie fs noseblunt</t>
+  </si>
+  <si>
+    <t>gap to ledge</t>
+  </si>
+  <si>
+    <t>bs lipslide</t>
+  </si>
+  <si>
+    <t>fs nosebluntslide</t>
+  </si>
+  <si>
+    <t>bs 180 fakie 5-0</t>
+  </si>
+  <si>
+    <t>switch bs bluntslide 270</t>
+  </si>
+  <si>
+    <t>switch fs 180 to manual to shuv-it</t>
+  </si>
+  <si>
+    <t>shuv-it</t>
+  </si>
+  <si>
+    <t>nollie bs 180 to fakie manual</t>
+  </si>
+  <si>
+    <t>bs 180 to fakie manual</t>
+  </si>
+  <si>
+    <t>nollie fs lipslide to noseblunt</t>
+  </si>
+  <si>
+    <t>late-shuv</t>
+  </si>
+  <si>
+    <t>ollie over</t>
+  </si>
+  <si>
+    <t>manual to kickflip</t>
+  </si>
+  <si>
+    <t>fs boardslide to shuv it</t>
   </si>
 </sst>
 </file>
@@ -643,11 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA88418-AAB9-4F27-A456-87056BC11CAB}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2004,6 +2148,876 @@
         <v>59</v>
       </c>
     </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
+        <v>93</v>
+      </c>
+      <c r="J69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>94</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>49</v>
+      </c>
+      <c r="J70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" t="s">
+        <v>98</v>
+      </c>
+      <c r="H71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" t="s">
+        <v>98</v>
+      </c>
+      <c r="H72" t="s">
+        <v>97</v>
+      </c>
+      <c r="J72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
+      </c>
+      <c r="H74" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" t="s">
+        <v>97</v>
+      </c>
+      <c r="J75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>11</v>
+      </c>
+      <c r="B78">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79" t="s">
+        <v>48</v>
+      </c>
+      <c r="J79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s">
+        <v>108</v>
+      </c>
+      <c r="J81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s">
+        <v>110</v>
+      </c>
+      <c r="J82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>16</v>
+      </c>
+      <c r="B83">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>111</v>
+      </c>
+      <c r="G83" t="s">
+        <v>98</v>
+      </c>
+      <c r="H83" t="s">
+        <v>97</v>
+      </c>
+      <c r="J83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>17</v>
+      </c>
+      <c r="B84">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>98</v>
+      </c>
+      <c r="H84" t="s">
+        <v>113</v>
+      </c>
+      <c r="J84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>18</v>
+      </c>
+      <c r="B85">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>114</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>19</v>
+      </c>
+      <c r="B86">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>115</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>52</v>
+      </c>
+      <c r="J86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>20</v>
+      </c>
+      <c r="B87">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>116</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>52</v>
+      </c>
+      <c r="J87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>21</v>
+      </c>
+      <c r="B88">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>117</v>
+      </c>
+      <c r="G88" t="s">
+        <v>98</v>
+      </c>
+      <c r="H88" t="s">
+        <v>97</v>
+      </c>
+      <c r="J88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>22</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" t="s">
+        <v>98</v>
+      </c>
+      <c r="H89" t="s">
+        <v>97</v>
+      </c>
+      <c r="J89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>23</v>
+      </c>
+      <c r="B90">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>119</v>
+      </c>
+      <c r="G90" t="s">
+        <v>48</v>
+      </c>
+      <c r="J90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>24</v>
+      </c>
+      <c r="B91">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>48</v>
+      </c>
+      <c r="J91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>25</v>
+      </c>
+      <c r="B92">
+        <v>28</v>
+      </c>
+      <c r="C92" t="s">
+        <v>122</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>121</v>
+      </c>
+      <c r="J92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>26</v>
+      </c>
+      <c r="B93">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>98</v>
+      </c>
+      <c r="H93" t="s">
+        <v>97</v>
+      </c>
+      <c r="J93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>27</v>
+      </c>
+      <c r="B94">
+        <v>30</v>
+      </c>
+      <c r="C94" t="s">
+        <v>123</v>
+      </c>
+      <c r="G94" t="s">
+        <v>98</v>
+      </c>
+      <c r="H94" t="s">
+        <v>97</v>
+      </c>
+      <c r="J94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>28</v>
+      </c>
+      <c r="B95">
+        <v>31</v>
+      </c>
+      <c r="C95" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>52</v>
+      </c>
+      <c r="J95" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>32</v>
+      </c>
+      <c r="C96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>52</v>
+      </c>
+      <c r="J96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>29</v>
+      </c>
+      <c r="B97">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>29</v>
+      </c>
+      <c r="B98">
+        <v>34</v>
+      </c>
+      <c r="C98" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+      <c r="J98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>30</v>
+      </c>
+      <c r="B99">
+        <v>35</v>
+      </c>
+      <c r="C99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>31</v>
+      </c>
+      <c r="B100">
+        <v>36</v>
+      </c>
+      <c r="C100" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>31</v>
+      </c>
+      <c r="B101">
+        <v>37</v>
+      </c>
+      <c r="C101" t="s">
+        <v>130</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>52</v>
+      </c>
+      <c r="J101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>32</v>
+      </c>
+      <c r="B102">
+        <v>38</v>
+      </c>
+      <c r="C102" t="s">
+        <v>131</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s">
+        <v>132</v>
+      </c>
+      <c r="J102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>33</v>
+      </c>
+      <c r="B103">
+        <v>39</v>
+      </c>
+      <c r="C103" t="s">
+        <v>133</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>34</v>
+      </c>
+      <c r="B104">
+        <v>40</v>
+      </c>
+      <c r="C104" t="s">
+        <v>134</v>
+      </c>
+      <c r="G104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" t="s">
+        <v>93</v>
+      </c>
+      <c r="J104" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>35</v>
+      </c>
+      <c r="B105">
+        <v>41</v>
+      </c>
+      <c r="C105" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+      <c r="J105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>35</v>
+      </c>
+      <c r="B106">
+        <v>42</v>
+      </c>
+      <c r="C106" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
+      <c r="J106" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/koston/data/koston.xlsx
+++ b/koston/data/koston.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jared.wilber\Desktop\jenkem_data\koston\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29DD721-6B73-4F75-99B0-AA6168B27B8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6490ACC-CD6F-4960-8778-F8DEE25118B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="1800" windowWidth="14400" windowHeight="7360" xr2:uid="{5644D466-66B3-4E17-B94A-2921DC353073}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5644D466-66B3-4E17-B94A-2921DC353073}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="kostondata" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="332">
   <si>
     <t>clip_index</t>
   </si>
@@ -436,6 +436,597 @@
   </si>
   <si>
     <t>fs boardslide to shuv it</t>
+  </si>
+  <si>
+    <t>bs boardslide</t>
+  </si>
+  <si>
+    <t>ollie to manual to shuv-it</t>
+  </si>
+  <si>
+    <t>gap to manual</t>
+  </si>
+  <si>
+    <t>fs 180 to switch manual to regular</t>
+  </si>
+  <si>
+    <t>bs shuv-it to late shuv-it</t>
+  </si>
+  <si>
+    <t>bs shuv-it revert</t>
+  </si>
+  <si>
+    <t>fs ollie revert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs 360 shuv lateflip  </t>
+  </si>
+  <si>
+    <t>spine</t>
+  </si>
+  <si>
+    <t>switch body varial melon grab 360 revert</t>
+  </si>
+  <si>
+    <t>switch body varial melon revert</t>
+  </si>
+  <si>
+    <t>fs shuv-it revert</t>
+  </si>
+  <si>
+    <t>bs bigspin to pivot to fakie</t>
+  </si>
+  <si>
+    <t>bs bigspin to pivot to shuv-it to fakie</t>
+  </si>
+  <si>
+    <t>ollie tailgrab to fakie</t>
+  </si>
+  <si>
+    <t>fs noseblunt to nosepick</t>
+  </si>
+  <si>
+    <t>blunt to bs noseblunt</t>
+  </si>
+  <si>
+    <t>bs bigspin to nosepick revert</t>
+  </si>
+  <si>
+    <t>bs 360 tailgrab nosetap</t>
+  </si>
+  <si>
+    <t>ollie north to nose maual</t>
+  </si>
+  <si>
+    <t>transition, manual</t>
+  </si>
+  <si>
+    <t>impossible tailgrab</t>
+  </si>
+  <si>
+    <t>transition, hip</t>
+  </si>
+  <si>
+    <t>kickflip to bs lipslide</t>
+  </si>
+  <si>
+    <t>bs pivot to bs disaster to noseblunt to nosepick to fakie</t>
+  </si>
+  <si>
+    <t>fs nosebluntslide to fakie</t>
+  </si>
+  <si>
+    <t>bs nosebluntslide popout</t>
+  </si>
+  <si>
+    <t>bs nosebluntslide to shuv-it</t>
+  </si>
+  <si>
+    <t>switch fs 180</t>
+  </si>
+  <si>
+    <t>ollie late 360 shuv-it</t>
+  </si>
+  <si>
+    <t>fs pivot to fakie</t>
+  </si>
+  <si>
+    <t>natural quarterpipe</t>
+  </si>
+  <si>
+    <t>bs crook popover</t>
+  </si>
+  <si>
+    <t>switch bs noseslide</t>
+  </si>
+  <si>
+    <t>360 flip to fakie</t>
+  </si>
+  <si>
+    <t>switch fs 360</t>
+  </si>
+  <si>
+    <t>switch fs noseblunt to regular</t>
+  </si>
+  <si>
+    <t>blunt to bs noseblunt to fakie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs bluntslide to fakie </t>
+  </si>
+  <si>
+    <t>bs bigspin to fakie</t>
+  </si>
+  <si>
+    <t>switch bs bluntslide to bigspin</t>
+  </si>
+  <si>
+    <t>bs bluntslide to bigspin</t>
+  </si>
+  <si>
+    <t>bank to curb</t>
+  </si>
+  <si>
+    <t>fakie fs nosegrind to switch bs 180</t>
+  </si>
+  <si>
+    <t>switch nosemanual</t>
+  </si>
+  <si>
+    <t>bs shuv-it</t>
+  </si>
+  <si>
+    <t>fs 180 to nosegrind to regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs crook  </t>
+  </si>
+  <si>
+    <t>switch fs 180 to nose manual to switch</t>
+  </si>
+  <si>
+    <t>bs shuv-it to nosemanual to fakie</t>
+  </si>
+  <si>
+    <t>bs shuv-it to nosemanual revert to switch manual to regular</t>
+  </si>
+  <si>
+    <t>switch fs 180 to 5050 to bs 180</t>
+  </si>
+  <si>
+    <t>bs noseblunt to fakie</t>
+  </si>
+  <si>
+    <t>fs noseblunt to bigspin to fakie</t>
+  </si>
+  <si>
+    <t>fs 180 to nosegrind to shuv-it</t>
+  </si>
+  <si>
+    <t>bs boardslide to shuv-it</t>
+  </si>
+  <si>
+    <t>ollie to bs late shuv-it</t>
+  </si>
+  <si>
+    <t>bs nosebluntslide to 270</t>
+  </si>
+  <si>
+    <t>bs 180</t>
+  </si>
+  <si>
+    <t>Girl - Goldfish</t>
+  </si>
+  <si>
+    <t>nollie flip</t>
+  </si>
+  <si>
+    <t>nollie bs 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fs shuv-it  </t>
+  </si>
+  <si>
+    <t>nollie fs noseslide</t>
+  </si>
+  <si>
+    <t>nollie bs heelflip</t>
+  </si>
+  <si>
+    <t>bs flip</t>
+  </si>
+  <si>
+    <t>heelflip</t>
+  </si>
+  <si>
+    <t>bs noseslide to fakie</t>
+  </si>
+  <si>
+    <t>treflip</t>
+  </si>
+  <si>
+    <t>over obstacle</t>
+  </si>
+  <si>
+    <t>fs shuv-it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch flip  </t>
+  </si>
+  <si>
+    <t>switch treflip</t>
+  </si>
+  <si>
+    <t>switch heelflip</t>
+  </si>
+  <si>
+    <t>switch fs heelflip</t>
+  </si>
+  <si>
+    <t>switch flip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch fs nosegrind </t>
+  </si>
+  <si>
+    <t>switch bs tailslide</t>
+  </si>
+  <si>
+    <t>switch bs flip to nose manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fs flip  </t>
+  </si>
+  <si>
+    <t>bank to obstacle</t>
+  </si>
+  <si>
+    <t>switch inward heelflip</t>
+  </si>
+  <si>
+    <t>fs heelflip</t>
+  </si>
+  <si>
+    <t>fakie heelflip</t>
+  </si>
+  <si>
+    <t>nollie 180 to switch crook</t>
+  </si>
+  <si>
+    <t>switch bs 5-0</t>
+  </si>
+  <si>
+    <t>fakie fs flip</t>
+  </si>
+  <si>
+    <t>up stairs</t>
+  </si>
+  <si>
+    <t>fs bluntslide</t>
+  </si>
+  <si>
+    <t>picnic table</t>
+  </si>
+  <si>
+    <t>nollie fs heelflip</t>
+  </si>
+  <si>
+    <t>switch ollie</t>
+  </si>
+  <si>
+    <t>nollie heelflip</t>
+  </si>
+  <si>
+    <t>inward heelflip</t>
+  </si>
+  <si>
+    <t>fakie flip</t>
+  </si>
+  <si>
+    <t>101 - Falling Down</t>
+  </si>
+  <si>
+    <t>fs 180 to nosegrind</t>
+  </si>
+  <si>
+    <t>switch manual</t>
+  </si>
+  <si>
+    <t>kickflip to bs noseslide to fakie</t>
+  </si>
+  <si>
+    <t>kickflip to fs noseslide</t>
+  </si>
+  <si>
+    <t>bank to bank</t>
+  </si>
+  <si>
+    <t>kickflip to fs tailslide</t>
+  </si>
+  <si>
+    <t>fs flip</t>
+  </si>
+  <si>
+    <t>treflip to noseslide to fakie</t>
+  </si>
+  <si>
+    <t>caballerial kickflip</t>
+  </si>
+  <si>
+    <t>kickflip bs noseslide</t>
+  </si>
+  <si>
+    <t>bs noseslide to nollie flip</t>
+  </si>
+  <si>
+    <t>bs tailslide to kickflip to fakie</t>
+  </si>
+  <si>
+    <t>nollie flip to bs noseslide</t>
+  </si>
+  <si>
+    <t>nollie flip to fs noseslide</t>
+  </si>
+  <si>
+    <t>heelflip to fs noseslide</t>
+  </si>
+  <si>
+    <t>nollie heelflip to bs noseslide</t>
+  </si>
+  <si>
+    <t>halfcab flip to manual to bs 180</t>
+  </si>
+  <si>
+    <t>fs 180 to fakie manual to fakie fs flip</t>
+  </si>
+  <si>
+    <t>switch inward heelflip to switch manual</t>
+  </si>
+  <si>
+    <t>fakie flip to fakie manual to fakie flip</t>
+  </si>
+  <si>
+    <t>switch bs flip to manual</t>
+  </si>
+  <si>
+    <t>fakie treflip to switch bs 5-0</t>
+  </si>
+  <si>
+    <t>switch flip to bs tailslide</t>
+  </si>
+  <si>
+    <t>nollie fs flip to switch manual</t>
+  </si>
+  <si>
+    <t>nollie bs flip to switch manual</t>
+  </si>
+  <si>
+    <t>nollie fs flip to fakie manual</t>
+  </si>
+  <si>
+    <t>fakie bs 5-0 to fakie kickflip</t>
+  </si>
+  <si>
+    <t>nollie flip to bs nosegrind revert</t>
+  </si>
+  <si>
+    <t>bs 180 to fakie 5-0 to halfcab flip</t>
+  </si>
+  <si>
+    <t>nollie fs flip to nosegrind</t>
+  </si>
+  <si>
+    <t>heelflip to bs nosebluntslide</t>
+  </si>
+  <si>
+    <t>switch inward heelflip to switch fs 5-0</t>
+  </si>
+  <si>
+    <t>Girl - Pretty Sweet</t>
+  </si>
+  <si>
+    <t>fs 5-0</t>
+  </si>
+  <si>
+    <t>jersey barrier</t>
+  </si>
+  <si>
+    <t>switch bs 180 to nose manual to regular</t>
+  </si>
+  <si>
+    <t>treflip to nose manual to fakie</t>
+  </si>
+  <si>
+    <t>fs bigspin</t>
+  </si>
+  <si>
+    <t>into bank</t>
+  </si>
+  <si>
+    <t>bs 360</t>
+  </si>
+  <si>
+    <t>kickflip to bs tailslide</t>
+  </si>
+  <si>
+    <t>nollie bs crook</t>
+  </si>
+  <si>
+    <t>fs tailslide to switch bs nosebluntslide</t>
+  </si>
+  <si>
+    <t>bs tailslide to bs 360</t>
+  </si>
+  <si>
+    <t>bs wallride</t>
+  </si>
+  <si>
+    <t>Etnies - High 5</t>
+  </si>
+  <si>
+    <t>nollie bs noseslide to fakie</t>
+  </si>
+  <si>
+    <t>switch bs crook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">halfcab heelflip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ollie </t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>switch bs nosegrind</t>
+  </si>
+  <si>
+    <t>switch bs 180 to bs 5-0</t>
+  </si>
+  <si>
+    <t>switch fs noseslide</t>
+  </si>
+  <si>
+    <t>Transworld - Uno</t>
+  </si>
+  <si>
+    <t>bs 5050</t>
+  </si>
+  <si>
+    <t>halfcab to bs noseslide</t>
+  </si>
+  <si>
+    <t>bs lipslide to fakie</t>
+  </si>
+  <si>
+    <t>bs smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs feeble  </t>
+  </si>
+  <si>
+    <t>bs crook revert</t>
+  </si>
+  <si>
+    <t>fakie fs noseslide</t>
+  </si>
+  <si>
+    <t>hubba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nollie bs noseslide  </t>
+  </si>
+  <si>
+    <t>bs nosegrind</t>
+  </si>
+  <si>
+    <t>halfcab crook</t>
+  </si>
+  <si>
+    <t>switch fs smith</t>
+  </si>
+  <si>
+    <t>Girl - Mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fs tailslide  </t>
+  </si>
+  <si>
+    <t>fs noseslide</t>
+  </si>
+  <si>
+    <t>fs crook</t>
+  </si>
+  <si>
+    <t>switch fs bluntslide</t>
+  </si>
+  <si>
+    <t>nollie bs 5050</t>
+  </si>
+  <si>
+    <t>bs crook</t>
+  </si>
+  <si>
+    <t>switch bs 5-0 to bs shuv-it</t>
+  </si>
+  <si>
+    <t>switch fs shuv-it</t>
+  </si>
+  <si>
+    <t>fs nosegrind</t>
+  </si>
+  <si>
+    <t>switch bs shuv-it to nosegrind</t>
+  </si>
+  <si>
+    <t>switch fs shuv-it nosegrind</t>
+  </si>
+  <si>
+    <t>nollie fs nosegrind</t>
+  </si>
+  <si>
+    <t>bank to picnic table</t>
+  </si>
+  <si>
+    <t>fs shuv-it to nose manual</t>
+  </si>
+  <si>
+    <t>bank to bar</t>
+  </si>
+  <si>
+    <t>nollie bs 180 to switch manual</t>
+  </si>
+  <si>
+    <t>switch bs 180 to nosegrind</t>
+  </si>
+  <si>
+    <t>nollie bs nosegrind</t>
+  </si>
+  <si>
+    <t>bs smith to bs 180</t>
+  </si>
+  <si>
+    <t>fs bluntslide to bs shuv-it</t>
+  </si>
+  <si>
+    <t>bank to flat</t>
+  </si>
+  <si>
+    <t>nollie heelflip to nose manual</t>
+  </si>
+  <si>
+    <t>switch fs tailslide to fs shuv-it</t>
+  </si>
+  <si>
+    <t>nollie fs boardslide to fakie</t>
+  </si>
+  <si>
+    <t>switch bs nosegrind to fakie fs shuv-it</t>
+  </si>
+  <si>
+    <t>switch fs nosegrind to regular</t>
+  </si>
+  <si>
+    <t>fs shuv-it to bs nosegrind</t>
+  </si>
+  <si>
+    <t>bank to gap</t>
+  </si>
+  <si>
+    <t>nollie bs tailslide</t>
+  </si>
+  <si>
+    <t>kickflip to bs nosegrind to fakie</t>
+  </si>
+  <si>
+    <t>switch flip to bs nosegrind</t>
+  </si>
+  <si>
+    <t>nollie heelflip to bs nosegrind</t>
+  </si>
+  <si>
+    <t>switch flip to fs crook</t>
   </si>
 </sst>
 </file>
@@ -787,11 +1378,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA88418-AAB9-4F27-A456-87056BC11CAB}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I376" sqref="I376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3018,6 +3609,5748 @@
         <v>89</v>
       </c>
     </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>36</v>
+      </c>
+      <c r="B107">
+        <v>43</v>
+      </c>
+      <c r="C107" t="s">
+        <v>131</v>
+      </c>
+      <c r="G107" t="s">
+        <v>34</v>
+      </c>
+      <c r="J107" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>37</v>
+      </c>
+      <c r="B108">
+        <v>44</v>
+      </c>
+      <c r="C108" t="s">
+        <v>135</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>38</v>
+      </c>
+      <c r="B109">
+        <v>45</v>
+      </c>
+      <c r="C109" t="s">
+        <v>136</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" t="s">
+        <v>137</v>
+      </c>
+      <c r="J109" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>39</v>
+      </c>
+      <c r="B110">
+        <v>46</v>
+      </c>
+      <c r="C110" t="s">
+        <v>138</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>40</v>
+      </c>
+      <c r="B111">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>139</v>
+      </c>
+      <c r="G111" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" t="s">
+        <v>110</v>
+      </c>
+      <c r="J111" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>41</v>
+      </c>
+      <c r="B112">
+        <v>47</v>
+      </c>
+      <c r="C112" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" t="s">
+        <v>110</v>
+      </c>
+      <c r="J112" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>42</v>
+      </c>
+      <c r="B113">
+        <v>48</v>
+      </c>
+      <c r="C113" t="s">
+        <v>140</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" t="s">
+        <v>110</v>
+      </c>
+      <c r="J113" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>43</v>
+      </c>
+      <c r="B114">
+        <v>49</v>
+      </c>
+      <c r="C114" t="s">
+        <v>141</v>
+      </c>
+      <c r="G114" t="s">
+        <v>98</v>
+      </c>
+      <c r="H114" t="s">
+        <v>97</v>
+      </c>
+      <c r="J114" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>44</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+      <c r="C115" t="s">
+        <v>142</v>
+      </c>
+      <c r="G115" t="s">
+        <v>48</v>
+      </c>
+      <c r="J115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>45</v>
+      </c>
+      <c r="B116">
+        <v>51</v>
+      </c>
+      <c r="C116" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>98</v>
+      </c>
+      <c r="H116" t="s">
+        <v>143</v>
+      </c>
+      <c r="J116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>46</v>
+      </c>
+      <c r="B117">
+        <v>52</v>
+      </c>
+      <c r="C117" t="s">
+        <v>144</v>
+      </c>
+      <c r="G117" t="s">
+        <v>98</v>
+      </c>
+      <c r="H117" t="s">
+        <v>143</v>
+      </c>
+      <c r="J117" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>47</v>
+      </c>
+      <c r="B118">
+        <v>53</v>
+      </c>
+      <c r="C118" t="s">
+        <v>146</v>
+      </c>
+      <c r="G118" t="s">
+        <v>98</v>
+      </c>
+      <c r="H118" t="s">
+        <v>97</v>
+      </c>
+      <c r="J118" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>48</v>
+      </c>
+      <c r="B119">
+        <v>54</v>
+      </c>
+      <c r="C119" t="s">
+        <v>147</v>
+      </c>
+      <c r="G119" t="s">
+        <v>98</v>
+      </c>
+      <c r="H119" t="s">
+        <v>97</v>
+      </c>
+      <c r="J119" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>49</v>
+      </c>
+      <c r="B120">
+        <v>55</v>
+      </c>
+      <c r="C120" t="s">
+        <v>148</v>
+      </c>
+      <c r="G120" t="s">
+        <v>98</v>
+      </c>
+      <c r="H120" t="s">
+        <v>97</v>
+      </c>
+      <c r="J120" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>50</v>
+      </c>
+      <c r="B121">
+        <v>56</v>
+      </c>
+      <c r="C121" t="s">
+        <v>149</v>
+      </c>
+      <c r="G121" t="s">
+        <v>98</v>
+      </c>
+      <c r="H121" t="s">
+        <v>97</v>
+      </c>
+      <c r="J121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>51</v>
+      </c>
+      <c r="B122">
+        <v>57</v>
+      </c>
+      <c r="C122" t="s">
+        <v>150</v>
+      </c>
+      <c r="G122" t="s">
+        <v>98</v>
+      </c>
+      <c r="H122" t="s">
+        <v>97</v>
+      </c>
+      <c r="J122" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>52</v>
+      </c>
+      <c r="B123">
+        <v>58</v>
+      </c>
+      <c r="C123" t="s">
+        <v>151</v>
+      </c>
+      <c r="G123" t="s">
+        <v>98</v>
+      </c>
+      <c r="H123" t="s">
+        <v>97</v>
+      </c>
+      <c r="J123" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>53</v>
+      </c>
+      <c r="B124">
+        <v>59</v>
+      </c>
+      <c r="C124" t="s">
+        <v>152</v>
+      </c>
+      <c r="G124" t="s">
+        <v>98</v>
+      </c>
+      <c r="H124" t="s">
+        <v>97</v>
+      </c>
+      <c r="J124" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>54</v>
+      </c>
+      <c r="B125">
+        <v>60</v>
+      </c>
+      <c r="C125" t="s">
+        <v>153</v>
+      </c>
+      <c r="G125" t="s">
+        <v>98</v>
+      </c>
+      <c r="H125" t="s">
+        <v>97</v>
+      </c>
+      <c r="J125" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>55</v>
+      </c>
+      <c r="B126">
+        <v>61</v>
+      </c>
+      <c r="C126" t="s">
+        <v>154</v>
+      </c>
+      <c r="G126" t="s">
+        <v>155</v>
+      </c>
+      <c r="H126" t="s">
+        <v>97</v>
+      </c>
+      <c r="J126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>56</v>
+      </c>
+      <c r="B127">
+        <v>62</v>
+      </c>
+      <c r="C127" t="s">
+        <v>156</v>
+      </c>
+      <c r="G127" t="s">
+        <v>157</v>
+      </c>
+      <c r="H127" t="s">
+        <v>97</v>
+      </c>
+      <c r="J127" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>57</v>
+      </c>
+      <c r="B128">
+        <v>63</v>
+      </c>
+      <c r="C128" t="s">
+        <v>158</v>
+      </c>
+      <c r="G128" t="s">
+        <v>157</v>
+      </c>
+      <c r="H128" t="s">
+        <v>97</v>
+      </c>
+      <c r="J128" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>58</v>
+      </c>
+      <c r="B129">
+        <v>64</v>
+      </c>
+      <c r="C129" t="s">
+        <v>159</v>
+      </c>
+      <c r="G129" t="s">
+        <v>98</v>
+      </c>
+      <c r="H129" t="s">
+        <v>97</v>
+      </c>
+      <c r="J129" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>59</v>
+      </c>
+      <c r="B130">
+        <v>65</v>
+      </c>
+      <c r="C130" t="s">
+        <v>123</v>
+      </c>
+      <c r="G130" t="s">
+        <v>98</v>
+      </c>
+      <c r="H130" t="s">
+        <v>97</v>
+      </c>
+      <c r="J130" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>60</v>
+      </c>
+      <c r="B131">
+        <v>66</v>
+      </c>
+      <c r="C131" t="s">
+        <v>160</v>
+      </c>
+      <c r="G131" t="s">
+        <v>98</v>
+      </c>
+      <c r="H131" t="s">
+        <v>97</v>
+      </c>
+      <c r="J131" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>61</v>
+      </c>
+      <c r="B132">
+        <v>66</v>
+      </c>
+      <c r="C132" t="s">
+        <v>160</v>
+      </c>
+      <c r="G132" t="s">
+        <v>98</v>
+      </c>
+      <c r="H132" t="s">
+        <v>97</v>
+      </c>
+      <c r="J132" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>62</v>
+      </c>
+      <c r="B133">
+        <v>67</v>
+      </c>
+      <c r="C133" t="s">
+        <v>161</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>52</v>
+      </c>
+      <c r="J133" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>63</v>
+      </c>
+      <c r="B134">
+        <v>68</v>
+      </c>
+      <c r="C134" t="s">
+        <v>162</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>52</v>
+      </c>
+      <c r="J134" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>64</v>
+      </c>
+      <c r="B135">
+        <v>69</v>
+      </c>
+      <c r="C135" t="s">
+        <v>163</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+      <c r="J135" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>65</v>
+      </c>
+      <c r="B136">
+        <v>70</v>
+      </c>
+      <c r="C136" t="s">
+        <v>164</v>
+      </c>
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" t="s">
+        <v>110</v>
+      </c>
+      <c r="J136" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>66</v>
+      </c>
+      <c r="B137">
+        <v>71</v>
+      </c>
+      <c r="C137" t="s">
+        <v>165</v>
+      </c>
+      <c r="G137" t="s">
+        <v>98</v>
+      </c>
+      <c r="H137" t="s">
+        <v>166</v>
+      </c>
+      <c r="J137" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>67</v>
+      </c>
+      <c r="B138">
+        <v>72</v>
+      </c>
+      <c r="C138" t="s">
+        <v>178</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>68</v>
+      </c>
+      <c r="B139">
+        <v>73</v>
+      </c>
+      <c r="C139" t="s">
+        <v>167</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>52</v>
+      </c>
+      <c r="J139" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>69</v>
+      </c>
+      <c r="B140">
+        <v>74</v>
+      </c>
+      <c r="C140" t="s">
+        <v>168</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>21</v>
+      </c>
+      <c r="H140" t="s">
+        <v>36</v>
+      </c>
+      <c r="J140" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>70</v>
+      </c>
+      <c r="B141">
+        <v>75</v>
+      </c>
+      <c r="C141" t="s">
+        <v>90</v>
+      </c>
+      <c r="G141" t="s">
+        <v>21</v>
+      </c>
+      <c r="H141" t="s">
+        <v>36</v>
+      </c>
+      <c r="J141" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>71</v>
+      </c>
+      <c r="B142">
+        <v>76</v>
+      </c>
+      <c r="C142" t="s">
+        <v>163</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>72</v>
+      </c>
+      <c r="B143">
+        <v>77</v>
+      </c>
+      <c r="C143" t="s">
+        <v>169</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="G143" t="s">
+        <v>48</v>
+      </c>
+      <c r="J143" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>72</v>
+      </c>
+      <c r="B144">
+        <v>78</v>
+      </c>
+      <c r="C144" t="s">
+        <v>170</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" t="s">
+        <v>110</v>
+      </c>
+      <c r="J144" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>72</v>
+      </c>
+      <c r="B145">
+        <v>79</v>
+      </c>
+      <c r="C145" t="s">
+        <v>101</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
+        <v>98</v>
+      </c>
+      <c r="H145" t="s">
+        <v>97</v>
+      </c>
+      <c r="J145" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>72</v>
+      </c>
+      <c r="B146">
+        <v>80</v>
+      </c>
+      <c r="C146" t="s">
+        <v>171</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>98</v>
+      </c>
+      <c r="H146" t="s">
+        <v>97</v>
+      </c>
+      <c r="J146" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>73</v>
+      </c>
+      <c r="B147">
+        <v>81</v>
+      </c>
+      <c r="C147" t="s">
+        <v>172</v>
+      </c>
+      <c r="G147" t="s">
+        <v>98</v>
+      </c>
+      <c r="H147" t="s">
+        <v>97</v>
+      </c>
+      <c r="J147" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>74</v>
+      </c>
+      <c r="B148">
+        <v>82</v>
+      </c>
+      <c r="C148" t="s">
+        <v>173</v>
+      </c>
+      <c r="G148" t="s">
+        <v>98</v>
+      </c>
+      <c r="H148" t="s">
+        <v>97</v>
+      </c>
+      <c r="J148" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>75</v>
+      </c>
+      <c r="B149">
+        <v>83</v>
+      </c>
+      <c r="C149" t="s">
+        <v>174</v>
+      </c>
+      <c r="G149" t="s">
+        <v>98</v>
+      </c>
+      <c r="H149" t="s">
+        <v>97</v>
+      </c>
+      <c r="J149" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>76</v>
+      </c>
+      <c r="B150">
+        <v>84</v>
+      </c>
+      <c r="C150" t="s">
+        <v>123</v>
+      </c>
+      <c r="G150" t="s">
+        <v>98</v>
+      </c>
+      <c r="H150" t="s">
+        <v>97</v>
+      </c>
+      <c r="J150" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>77</v>
+      </c>
+      <c r="B151">
+        <v>85</v>
+      </c>
+      <c r="C151" t="s">
+        <v>175</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s">
+        <v>52</v>
+      </c>
+      <c r="J151" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>78</v>
+      </c>
+      <c r="B152">
+        <v>86</v>
+      </c>
+      <c r="C152" t="s">
+        <v>176</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" t="s">
+        <v>177</v>
+      </c>
+      <c r="J152" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>79</v>
+      </c>
+      <c r="B153">
+        <v>87</v>
+      </c>
+      <c r="C153" t="s">
+        <v>179</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>79</v>
+      </c>
+      <c r="B154">
+        <v>88</v>
+      </c>
+      <c r="C154" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>24</v>
+      </c>
+      <c r="J154" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>79</v>
+      </c>
+      <c r="B155">
+        <v>89</v>
+      </c>
+      <c r="C155" t="s">
+        <v>180</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>24</v>
+      </c>
+      <c r="J155" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>79</v>
+      </c>
+      <c r="B156">
+        <v>90</v>
+      </c>
+      <c r="C156" t="s">
+        <v>38</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>24</v>
+      </c>
+      <c r="J156" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>79</v>
+      </c>
+      <c r="B157">
+        <v>91</v>
+      </c>
+      <c r="C157" t="s">
+        <v>181</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>79</v>
+      </c>
+      <c r="B158">
+        <v>92</v>
+      </c>
+      <c r="C158" t="s">
+        <v>182</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>80</v>
+      </c>
+      <c r="B159">
+        <v>93</v>
+      </c>
+      <c r="C159" t="s">
+        <v>183</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>81</v>
+      </c>
+      <c r="B160">
+        <v>94</v>
+      </c>
+      <c r="C160" t="s">
+        <v>184</v>
+      </c>
+      <c r="G160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>82</v>
+      </c>
+      <c r="B161">
+        <v>95</v>
+      </c>
+      <c r="C161" t="s">
+        <v>185</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>83</v>
+      </c>
+      <c r="B162">
+        <v>96</v>
+      </c>
+      <c r="C162" t="s">
+        <v>186</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>84</v>
+      </c>
+      <c r="B163">
+        <v>97</v>
+      </c>
+      <c r="C163" t="s">
+        <v>187</v>
+      </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>85</v>
+      </c>
+      <c r="B164">
+        <v>98</v>
+      </c>
+      <c r="C164" t="s">
+        <v>188</v>
+      </c>
+      <c r="G164" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>86</v>
+      </c>
+      <c r="B165">
+        <v>99</v>
+      </c>
+      <c r="C165" t="s">
+        <v>189</v>
+      </c>
+      <c r="G165" t="s">
+        <v>14</v>
+      </c>
+      <c r="J165" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>87</v>
+      </c>
+      <c r="B166">
+        <v>100</v>
+      </c>
+      <c r="C166" t="s">
+        <v>190</v>
+      </c>
+      <c r="G166" t="s">
+        <v>21</v>
+      </c>
+      <c r="H166" t="s">
+        <v>108</v>
+      </c>
+      <c r="J166" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>88</v>
+      </c>
+      <c r="B167">
+        <v>101</v>
+      </c>
+      <c r="C167" t="s">
+        <v>191</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="G167" t="s">
+        <v>24</v>
+      </c>
+      <c r="J167" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>88</v>
+      </c>
+      <c r="B168">
+        <v>102</v>
+      </c>
+      <c r="C168" t="s">
+        <v>180</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>24</v>
+      </c>
+      <c r="J168" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>88</v>
+      </c>
+      <c r="B169">
+        <v>103</v>
+      </c>
+      <c r="C169" t="s">
+        <v>192</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169" t="s">
+        <v>52</v>
+      </c>
+      <c r="J169" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>89</v>
+      </c>
+      <c r="B170">
+        <v>104</v>
+      </c>
+      <c r="C170" t="s">
+        <v>135</v>
+      </c>
+      <c r="G170" t="s">
+        <v>21</v>
+      </c>
+      <c r="H170" t="s">
+        <v>108</v>
+      </c>
+      <c r="J170" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>90</v>
+      </c>
+      <c r="B171">
+        <v>105</v>
+      </c>
+      <c r="C171" t="s">
+        <v>193</v>
+      </c>
+      <c r="G171" t="s">
+        <v>24</v>
+      </c>
+      <c r="J171" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>195</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="G172" t="s">
+        <v>24</v>
+      </c>
+      <c r="J172" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173" t="s">
+        <v>196</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="G173" t="s">
+        <v>24</v>
+      </c>
+      <c r="J173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>69</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="G174" t="s">
+        <v>14</v>
+      </c>
+      <c r="J174" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>197</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="G175" t="s">
+        <v>24</v>
+      </c>
+      <c r="J175" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>180</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
+        <v>24</v>
+      </c>
+      <c r="J176" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>2</v>
+      </c>
+      <c r="B177">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>198</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="G177" t="s">
+        <v>14</v>
+      </c>
+      <c r="J177" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>199</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+      <c r="J178" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>3</v>
+      </c>
+      <c r="B179">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>200</v>
+      </c>
+      <c r="G179" t="s">
+        <v>24</v>
+      </c>
+      <c r="H179" t="s">
+        <v>74</v>
+      </c>
+      <c r="J179" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>201</v>
+      </c>
+      <c r="G180" t="s">
+        <v>24</v>
+      </c>
+      <c r="H180" t="s">
+        <v>74</v>
+      </c>
+      <c r="J180" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>5</v>
+      </c>
+      <c r="B181">
+        <v>10</v>
+      </c>
+      <c r="C181" t="s">
+        <v>202</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
+        <v>14</v>
+      </c>
+      <c r="J181" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>5</v>
+      </c>
+      <c r="B182">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>73</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
+        <v>24</v>
+      </c>
+      <c r="H182" t="s">
+        <v>204</v>
+      </c>
+      <c r="J182" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>5</v>
+      </c>
+      <c r="B183">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>203</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
+        <v>24</v>
+      </c>
+      <c r="H183" t="s">
+        <v>204</v>
+      </c>
+      <c r="J183" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>6</v>
+      </c>
+      <c r="B184">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>205</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>24</v>
+      </c>
+      <c r="H184" t="s">
+        <v>204</v>
+      </c>
+      <c r="J184" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>6</v>
+      </c>
+      <c r="B185">
+        <v>14</v>
+      </c>
+      <c r="C185" t="s">
+        <v>206</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
+        <v>24</v>
+      </c>
+      <c r="J185" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186">
+        <v>15</v>
+      </c>
+      <c r="C186" t="s">
+        <v>207</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="G186" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" t="s">
+        <v>204</v>
+      </c>
+      <c r="J186" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>7</v>
+      </c>
+      <c r="B187">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
+        <v>73</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
+        <v>34</v>
+      </c>
+      <c r="J187" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188">
+        <v>17</v>
+      </c>
+      <c r="C188" t="s">
+        <v>25</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="G188" t="s">
+        <v>24</v>
+      </c>
+      <c r="H188" t="s">
+        <v>204</v>
+      </c>
+      <c r="J188" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189">
+        <v>18</v>
+      </c>
+      <c r="C189" t="s">
+        <v>163</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="G189" t="s">
+        <v>24</v>
+      </c>
+      <c r="J189" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190">
+        <v>19</v>
+      </c>
+      <c r="C190" t="s">
+        <v>66</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="G190" t="s">
+        <v>14</v>
+      </c>
+      <c r="J190" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191">
+        <v>20</v>
+      </c>
+      <c r="C191" t="s">
+        <v>196</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="G191" t="s">
+        <v>24</v>
+      </c>
+      <c r="H191" t="s">
+        <v>204</v>
+      </c>
+      <c r="J191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>8</v>
+      </c>
+      <c r="B192">
+        <v>21</v>
+      </c>
+      <c r="C192" t="s">
+        <v>208</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="G192" t="s">
+        <v>24</v>
+      </c>
+      <c r="H192" t="s">
+        <v>204</v>
+      </c>
+      <c r="J192" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="B193">
+        <v>22</v>
+      </c>
+      <c r="C193" t="s">
+        <v>209</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="G193" t="s">
+        <v>24</v>
+      </c>
+      <c r="J193" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>9</v>
+      </c>
+      <c r="B194">
+        <v>23</v>
+      </c>
+      <c r="C194" t="s">
+        <v>210</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="G194" t="s">
+        <v>24</v>
+      </c>
+      <c r="H194" t="s">
+        <v>204</v>
+      </c>
+      <c r="J194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>9</v>
+      </c>
+      <c r="B195">
+        <v>24</v>
+      </c>
+      <c r="C195" t="s">
+        <v>211</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="G195" t="s">
+        <v>14</v>
+      </c>
+      <c r="J195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>9</v>
+      </c>
+      <c r="B196">
+        <v>25</v>
+      </c>
+      <c r="C196" t="s">
+        <v>212</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="G196" t="s">
+        <v>14</v>
+      </c>
+      <c r="J196" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>10</v>
+      </c>
+      <c r="B197">
+        <v>26</v>
+      </c>
+      <c r="C197" t="s">
+        <v>213</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="G197" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>11</v>
+      </c>
+      <c r="B198">
+        <v>27</v>
+      </c>
+      <c r="C198" t="s">
+        <v>214</v>
+      </c>
+      <c r="G198" t="s">
+        <v>215</v>
+      </c>
+      <c r="H198" t="s">
+        <v>204</v>
+      </c>
+      <c r="J198" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>12</v>
+      </c>
+      <c r="B199">
+        <v>28</v>
+      </c>
+      <c r="C199" t="s">
+        <v>216</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="G199" t="s">
+        <v>24</v>
+      </c>
+      <c r="J199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>12</v>
+      </c>
+      <c r="B200">
+        <v>29</v>
+      </c>
+      <c r="C200" t="s">
+        <v>207</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="G200" t="s">
+        <v>24</v>
+      </c>
+      <c r="J200" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>13</v>
+      </c>
+      <c r="B201">
+        <v>30</v>
+      </c>
+      <c r="C201" t="s">
+        <v>217</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="G201" t="s">
+        <v>24</v>
+      </c>
+      <c r="H201" t="s">
+        <v>204</v>
+      </c>
+      <c r="J201" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>13</v>
+      </c>
+      <c r="B202">
+        <v>31</v>
+      </c>
+      <c r="C202" t="s">
+        <v>216</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>24</v>
+      </c>
+      <c r="H202" t="s">
+        <v>204</v>
+      </c>
+      <c r="J202" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>13</v>
+      </c>
+      <c r="B203">
+        <v>32</v>
+      </c>
+      <c r="C203" t="s">
+        <v>199</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s">
+        <v>24</v>
+      </c>
+      <c r="J203" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>13</v>
+      </c>
+      <c r="B204">
+        <v>33</v>
+      </c>
+      <c r="C204" t="s">
+        <v>69</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="G204" t="s">
+        <v>14</v>
+      </c>
+      <c r="J204" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>14</v>
+      </c>
+      <c r="B205">
+        <v>34</v>
+      </c>
+      <c r="C205" t="s">
+        <v>65</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="G205" t="s">
+        <v>24</v>
+      </c>
+      <c r="H205" t="s">
+        <v>204</v>
+      </c>
+      <c r="J205" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>14</v>
+      </c>
+      <c r="B206">
+        <v>35</v>
+      </c>
+      <c r="C206" t="s">
+        <v>218</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="G206" t="s">
+        <v>24</v>
+      </c>
+      <c r="J206" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>14</v>
+      </c>
+      <c r="B207">
+        <v>36</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
+        <v>24</v>
+      </c>
+      <c r="J207" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>14</v>
+      </c>
+      <c r="B208">
+        <v>37</v>
+      </c>
+      <c r="C208" t="s">
+        <v>195</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="G208" t="s">
+        <v>24</v>
+      </c>
+      <c r="J208" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>15</v>
+      </c>
+      <c r="B209">
+        <v>38</v>
+      </c>
+      <c r="C209" t="s">
+        <v>219</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="G209" t="s">
+        <v>14</v>
+      </c>
+      <c r="J209" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>15</v>
+      </c>
+      <c r="B210">
+        <v>39</v>
+      </c>
+      <c r="C210" t="s">
+        <v>220</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="G210" t="s">
+        <v>14</v>
+      </c>
+      <c r="J210" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>15</v>
+      </c>
+      <c r="B211">
+        <v>40</v>
+      </c>
+      <c r="C211" t="s">
+        <v>221</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="G211" t="s">
+        <v>24</v>
+      </c>
+      <c r="H211" t="s">
+        <v>204</v>
+      </c>
+      <c r="J211" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>16</v>
+      </c>
+      <c r="B212">
+        <v>41</v>
+      </c>
+      <c r="C212" t="s">
+        <v>200</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="G212" t="s">
+        <v>222</v>
+      </c>
+      <c r="J212" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>16</v>
+      </c>
+      <c r="B213">
+        <v>42</v>
+      </c>
+      <c r="C213" t="s">
+        <v>73</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+      <c r="J213" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>16</v>
+      </c>
+      <c r="B214">
+        <v>43</v>
+      </c>
+      <c r="C214" t="s">
+        <v>223</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="G214" t="s">
+        <v>14</v>
+      </c>
+      <c r="J214" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>17</v>
+      </c>
+      <c r="B215">
+        <v>44</v>
+      </c>
+      <c r="C215" t="s">
+        <v>208</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="G215" t="s">
+        <v>224</v>
+      </c>
+      <c r="H215" t="s">
+        <v>204</v>
+      </c>
+      <c r="J215" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>18</v>
+      </c>
+      <c r="B216">
+        <v>45</v>
+      </c>
+      <c r="C216" t="s">
+        <v>201</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="G216" t="s">
+        <v>24</v>
+      </c>
+      <c r="H216" t="s">
+        <v>204</v>
+      </c>
+      <c r="J216" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>18</v>
+      </c>
+      <c r="B217">
+        <v>46</v>
+      </c>
+      <c r="C217" t="s">
+        <v>225</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="G217" t="s">
+        <v>24</v>
+      </c>
+      <c r="J217" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>18</v>
+      </c>
+      <c r="B218">
+        <v>47</v>
+      </c>
+      <c r="C218" t="s">
+        <v>226</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="G218" t="s">
+        <v>24</v>
+      </c>
+      <c r="H218" t="s">
+        <v>204</v>
+      </c>
+      <c r="J218" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>18</v>
+      </c>
+      <c r="B219">
+        <v>48</v>
+      </c>
+      <c r="C219" t="s">
+        <v>212</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="G219" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>18</v>
+      </c>
+      <c r="B220">
+        <v>49</v>
+      </c>
+      <c r="C220" t="s">
+        <v>227</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="G220" t="s">
+        <v>24</v>
+      </c>
+      <c r="J220" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>19</v>
+      </c>
+      <c r="B221">
+        <v>50</v>
+      </c>
+      <c r="C221" t="s">
+        <v>208</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="G221" t="s">
+        <v>222</v>
+      </c>
+      <c r="J221" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>19</v>
+      </c>
+      <c r="B222">
+        <v>51</v>
+      </c>
+      <c r="C222" t="s">
+        <v>218</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="G222" t="s">
+        <v>11</v>
+      </c>
+      <c r="J222" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>19</v>
+      </c>
+      <c r="B223">
+        <v>52</v>
+      </c>
+      <c r="C223" t="s">
+        <v>86</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="G223" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>20</v>
+      </c>
+      <c r="B224">
+        <v>53</v>
+      </c>
+      <c r="C224" t="s">
+        <v>228</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="G224" t="s">
+        <v>24</v>
+      </c>
+      <c r="J224" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>20</v>
+      </c>
+      <c r="B225">
+        <v>54</v>
+      </c>
+      <c r="C225" t="s">
+        <v>208</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="G225" t="s">
+        <v>11</v>
+      </c>
+      <c r="J225" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>20</v>
+      </c>
+      <c r="B226">
+        <v>55</v>
+      </c>
+      <c r="C226" t="s">
+        <v>229</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="G226" t="s">
+        <v>24</v>
+      </c>
+      <c r="H226" t="s">
+        <v>204</v>
+      </c>
+      <c r="J226" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>231</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="G227" t="s">
+        <v>14</v>
+      </c>
+      <c r="J227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228" t="s">
+        <v>232</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
+        <v>17</v>
+      </c>
+      <c r="J228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>208</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="G229" t="s">
+        <v>24</v>
+      </c>
+      <c r="J229" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>233</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="G230" t="s">
+        <v>14</v>
+      </c>
+      <c r="J230" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>29</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="G231" t="s">
+        <v>34</v>
+      </c>
+      <c r="J231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>3</v>
+      </c>
+      <c r="B232">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>234</v>
+      </c>
+      <c r="G232" t="s">
+        <v>14</v>
+      </c>
+      <c r="J232" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>4</v>
+      </c>
+      <c r="B233">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>38</v>
+      </c>
+      <c r="G233" t="s">
+        <v>235</v>
+      </c>
+      <c r="J233" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>223</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="G234" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>236</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="G235" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>5</v>
+      </c>
+      <c r="B236">
+        <v>10</v>
+      </c>
+      <c r="C236" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="G236" t="s">
+        <v>24</v>
+      </c>
+      <c r="J236" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>5</v>
+      </c>
+      <c r="B237">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="G237" t="s">
+        <v>24</v>
+      </c>
+      <c r="J237" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>5</v>
+      </c>
+      <c r="B238">
+        <v>12</v>
+      </c>
+      <c r="C238" t="s">
+        <v>237</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="G238" t="s">
+        <v>24</v>
+      </c>
+      <c r="J238" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>6</v>
+      </c>
+      <c r="B239">
+        <v>13</v>
+      </c>
+      <c r="C239" t="s">
+        <v>238</v>
+      </c>
+      <c r="G239" t="s">
+        <v>14</v>
+      </c>
+      <c r="H239" t="s">
+        <v>52</v>
+      </c>
+      <c r="J239" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>7</v>
+      </c>
+      <c r="B240">
+        <v>14</v>
+      </c>
+      <c r="C240" t="s">
+        <v>239</v>
+      </c>
+      <c r="G240" t="s">
+        <v>19</v>
+      </c>
+      <c r="H240" t="s">
+        <v>110</v>
+      </c>
+      <c r="J240" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>8</v>
+      </c>
+      <c r="B241">
+        <v>15</v>
+      </c>
+      <c r="C241" t="s">
+        <v>240</v>
+      </c>
+      <c r="G241" t="s">
+        <v>14</v>
+      </c>
+      <c r="J241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>9</v>
+      </c>
+      <c r="B242">
+        <v>16</v>
+      </c>
+      <c r="C242" t="s">
+        <v>241</v>
+      </c>
+      <c r="G242" t="s">
+        <v>14</v>
+      </c>
+      <c r="J242" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>10</v>
+      </c>
+      <c r="B243">
+        <v>17</v>
+      </c>
+      <c r="C243" t="s">
+        <v>242</v>
+      </c>
+      <c r="G243" t="s">
+        <v>14</v>
+      </c>
+      <c r="J243" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>11</v>
+      </c>
+      <c r="B244">
+        <v>18</v>
+      </c>
+      <c r="C244" t="s">
+        <v>243</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="G244" t="s">
+        <v>14</v>
+      </c>
+      <c r="J244" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>12</v>
+      </c>
+      <c r="B245">
+        <v>19</v>
+      </c>
+      <c r="C245" t="s">
+        <v>212</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="G245" t="s">
+        <v>14</v>
+      </c>
+      <c r="H245" t="s">
+        <v>52</v>
+      </c>
+      <c r="J245" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>12</v>
+      </c>
+      <c r="B246">
+        <v>20</v>
+      </c>
+      <c r="C246" t="s">
+        <v>244</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="G246" t="s">
+        <v>14</v>
+      </c>
+      <c r="H246" t="s">
+        <v>52</v>
+      </c>
+      <c r="J246" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>12</v>
+      </c>
+      <c r="B247">
+        <v>21</v>
+      </c>
+      <c r="C247" t="s">
+        <v>203</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="G247" t="s">
+        <v>24</v>
+      </c>
+      <c r="J247" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>13</v>
+      </c>
+      <c r="B248">
+        <v>22</v>
+      </c>
+      <c r="C248" t="s">
+        <v>237</v>
+      </c>
+      <c r="G248" t="s">
+        <v>34</v>
+      </c>
+      <c r="J248" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>14</v>
+      </c>
+      <c r="B249">
+        <v>23</v>
+      </c>
+      <c r="C249" t="s">
+        <v>245</v>
+      </c>
+      <c r="G249" t="s">
+        <v>14</v>
+      </c>
+      <c r="J249" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>15</v>
+      </c>
+      <c r="B250">
+        <v>24</v>
+      </c>
+      <c r="C250" t="s">
+        <v>246</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="G250" t="s">
+        <v>14</v>
+      </c>
+      <c r="J250" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>16</v>
+      </c>
+      <c r="B251">
+        <v>25</v>
+      </c>
+      <c r="C251" t="s">
+        <v>76</v>
+      </c>
+      <c r="G251" t="s">
+        <v>14</v>
+      </c>
+      <c r="J251" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>17</v>
+      </c>
+      <c r="B252">
+        <v>26</v>
+      </c>
+      <c r="C252" t="s">
+        <v>200</v>
+      </c>
+      <c r="G252" t="s">
+        <v>34</v>
+      </c>
+      <c r="J252" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>18</v>
+      </c>
+      <c r="B253">
+        <v>27</v>
+      </c>
+      <c r="C253" t="s">
+        <v>247</v>
+      </c>
+      <c r="G253" t="s">
+        <v>17</v>
+      </c>
+      <c r="J253" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>19</v>
+      </c>
+      <c r="B254">
+        <v>28</v>
+      </c>
+      <c r="C254" t="s">
+        <v>248</v>
+      </c>
+      <c r="G254" t="s">
+        <v>17</v>
+      </c>
+      <c r="J254" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>20</v>
+      </c>
+      <c r="B255">
+        <v>29</v>
+      </c>
+      <c r="C255" t="s">
+        <v>249</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="G255" t="s">
+        <v>17</v>
+      </c>
+      <c r="J255" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>21</v>
+      </c>
+      <c r="B256">
+        <v>30</v>
+      </c>
+      <c r="C256" t="s">
+        <v>250</v>
+      </c>
+      <c r="G256" t="s">
+        <v>17</v>
+      </c>
+      <c r="J256" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>22</v>
+      </c>
+      <c r="B257">
+        <v>31</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="G257" t="s">
+        <v>24</v>
+      </c>
+      <c r="H257" t="s">
+        <v>74</v>
+      </c>
+      <c r="J257" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>23</v>
+      </c>
+      <c r="B258">
+        <v>32</v>
+      </c>
+      <c r="C258" t="s">
+        <v>65</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="G258" t="s">
+        <v>24</v>
+      </c>
+      <c r="H258" t="s">
+        <v>74</v>
+      </c>
+      <c r="J258" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>24</v>
+      </c>
+      <c r="B259">
+        <v>33</v>
+      </c>
+      <c r="C259" t="s">
+        <v>251</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="G259" t="s">
+        <v>17</v>
+      </c>
+      <c r="J259" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>25</v>
+      </c>
+      <c r="B260">
+        <v>34</v>
+      </c>
+      <c r="C260" t="s">
+        <v>252</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="G260" t="s">
+        <v>14</v>
+      </c>
+      <c r="J260" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>26</v>
+      </c>
+      <c r="B261">
+        <v>35</v>
+      </c>
+      <c r="C261" t="s">
+        <v>200</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="G261" t="s">
+        <v>222</v>
+      </c>
+      <c r="J261" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>26</v>
+      </c>
+      <c r="B262">
+        <v>36</v>
+      </c>
+      <c r="C262" t="s">
+        <v>253</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="G262" t="s">
+        <v>14</v>
+      </c>
+      <c r="J262" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>26</v>
+      </c>
+      <c r="B263">
+        <v>37</v>
+      </c>
+      <c r="C263" t="s">
+        <v>79</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="G263" t="s">
+        <v>14</v>
+      </c>
+      <c r="J263" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>27</v>
+      </c>
+      <c r="B264">
+        <v>38</v>
+      </c>
+      <c r="C264" t="s">
+        <v>200</v>
+      </c>
+      <c r="G264" t="s">
+        <v>235</v>
+      </c>
+      <c r="H264" t="s">
+        <v>74</v>
+      </c>
+      <c r="J264" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>28</v>
+      </c>
+      <c r="B265">
+        <v>39</v>
+      </c>
+      <c r="C265" t="s">
+        <v>254</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="G265" t="s">
+        <v>17</v>
+      </c>
+      <c r="J265" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>29</v>
+      </c>
+      <c r="B266">
+        <v>40</v>
+      </c>
+      <c r="C266" t="s">
+        <v>255</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="G266" t="s">
+        <v>17</v>
+      </c>
+      <c r="J266" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>30</v>
+      </c>
+      <c r="B267">
+        <v>41</v>
+      </c>
+      <c r="C267" t="s">
+        <v>256</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="G267" t="s">
+        <v>17</v>
+      </c>
+      <c r="J267" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>31</v>
+      </c>
+      <c r="B268">
+        <v>42</v>
+      </c>
+      <c r="C268" t="s">
+        <v>257</v>
+      </c>
+      <c r="G268" t="s">
+        <v>14</v>
+      </c>
+      <c r="J268" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>32</v>
+      </c>
+      <c r="B269">
+        <v>43</v>
+      </c>
+      <c r="C269" t="s">
+        <v>258</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="G269" t="s">
+        <v>14</v>
+      </c>
+      <c r="J269" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>33</v>
+      </c>
+      <c r="B270">
+        <v>44</v>
+      </c>
+      <c r="C270" t="s">
+        <v>259</v>
+      </c>
+      <c r="G270" t="s">
+        <v>14</v>
+      </c>
+      <c r="J270" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>34</v>
+      </c>
+      <c r="B271">
+        <v>45</v>
+      </c>
+      <c r="C271" t="s">
+        <v>260</v>
+      </c>
+      <c r="G271" t="s">
+        <v>14</v>
+      </c>
+      <c r="H271" t="s">
+        <v>52</v>
+      </c>
+      <c r="J271" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>35</v>
+      </c>
+      <c r="B272">
+        <v>46</v>
+      </c>
+      <c r="C272" t="s">
+        <v>261</v>
+      </c>
+      <c r="G272" t="s">
+        <v>14</v>
+      </c>
+      <c r="H272" t="s">
+        <v>52</v>
+      </c>
+      <c r="J272" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>36</v>
+      </c>
+      <c r="B273">
+        <v>47</v>
+      </c>
+      <c r="C273" t="s">
+        <v>262</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="G273" t="s">
+        <v>14</v>
+      </c>
+      <c r="H273" t="s">
+        <v>52</v>
+      </c>
+      <c r="J273" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>37</v>
+      </c>
+      <c r="B274">
+        <v>48</v>
+      </c>
+      <c r="C274" t="s">
+        <v>207</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="G274" t="s">
+        <v>34</v>
+      </c>
+      <c r="J274" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
+        <v>264</v>
+      </c>
+      <c r="G275" t="s">
+        <v>98</v>
+      </c>
+      <c r="H275" t="s">
+        <v>265</v>
+      </c>
+      <c r="J275" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>2</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276" t="s">
+        <v>266</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="G276" t="s">
+        <v>17</v>
+      </c>
+      <c r="J276" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>3</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>267</v>
+      </c>
+      <c r="G277" t="s">
+        <v>17</v>
+      </c>
+      <c r="J277" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>4</v>
+      </c>
+      <c r="B278">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>268</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="G278" t="s">
+        <v>34</v>
+      </c>
+      <c r="H278" t="s">
+        <v>269</v>
+      </c>
+      <c r="J278" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>4</v>
+      </c>
+      <c r="B279">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>40</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="G279" t="s">
+        <v>24</v>
+      </c>
+      <c r="H279" t="s">
+        <v>269</v>
+      </c>
+      <c r="J279" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>4</v>
+      </c>
+      <c r="B280">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>270</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="G280" t="s">
+        <v>34</v>
+      </c>
+      <c r="J280" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>5</v>
+      </c>
+      <c r="B281">
+        <v>7</v>
+      </c>
+      <c r="C281" t="s">
+        <v>271</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="G281" t="s">
+        <v>14</v>
+      </c>
+      <c r="J281" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>5</v>
+      </c>
+      <c r="B282">
+        <v>8</v>
+      </c>
+      <c r="C282" t="s">
+        <v>272</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="G282" t="s">
+        <v>14</v>
+      </c>
+      <c r="J282" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>5</v>
+      </c>
+      <c r="B283">
+        <v>9</v>
+      </c>
+      <c r="C283" t="s">
+        <v>273</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="G283" t="s">
+        <v>14</v>
+      </c>
+      <c r="J283" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>6</v>
+      </c>
+      <c r="B284">
+        <v>10</v>
+      </c>
+      <c r="C284" t="s">
+        <v>274</v>
+      </c>
+      <c r="G284" t="s">
+        <v>14</v>
+      </c>
+      <c r="J284" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>7</v>
+      </c>
+      <c r="B285">
+        <v>11</v>
+      </c>
+      <c r="C285" t="s">
+        <v>275</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="G285" t="s">
+        <v>11</v>
+      </c>
+      <c r="J285" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>8</v>
+      </c>
+      <c r="B286">
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
+        <v>275</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286" t="s">
+        <v>11</v>
+      </c>
+      <c r="J286" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
+        <v>277</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="G287" t="s">
+        <v>14</v>
+      </c>
+      <c r="J287" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288" t="s">
+        <v>29</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="G288" t="s">
+        <v>24</v>
+      </c>
+      <c r="J288" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>2</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289" t="s">
+        <v>193</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="G289" t="s">
+        <v>224</v>
+      </c>
+      <c r="H289" t="s">
+        <v>204</v>
+      </c>
+      <c r="J289" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>3</v>
+      </c>
+      <c r="B290">
+        <v>4</v>
+      </c>
+      <c r="C290" t="s">
+        <v>226</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="G290" t="s">
+        <v>224</v>
+      </c>
+      <c r="H290" t="s">
+        <v>204</v>
+      </c>
+      <c r="J290" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>4</v>
+      </c>
+      <c r="B291">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>278</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="G291" t="s">
+        <v>14</v>
+      </c>
+      <c r="J291" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>4</v>
+      </c>
+      <c r="B292">
+        <v>6</v>
+      </c>
+      <c r="C292" t="s">
+        <v>279</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="G292" t="s">
+        <v>24</v>
+      </c>
+      <c r="J292" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>5</v>
+      </c>
+      <c r="B293">
+        <v>7</v>
+      </c>
+      <c r="C293" t="s">
+        <v>280</v>
+      </c>
+      <c r="G293" t="s">
+        <v>281</v>
+      </c>
+      <c r="J293" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>6</v>
+      </c>
+      <c r="B294">
+        <v>8</v>
+      </c>
+      <c r="C294" t="s">
+        <v>282</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="G294" t="s">
+        <v>14</v>
+      </c>
+      <c r="J294" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>6</v>
+      </c>
+      <c r="B295">
+        <v>9</v>
+      </c>
+      <c r="C295" t="s">
+        <v>283</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="G295" t="s">
+        <v>14</v>
+      </c>
+      <c r="J295" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>6</v>
+      </c>
+      <c r="B296">
+        <v>10</v>
+      </c>
+      <c r="C296" t="s">
+        <v>200</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="G296" t="s">
+        <v>24</v>
+      </c>
+      <c r="H296" t="s">
+        <v>204</v>
+      </c>
+      <c r="J296" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>7</v>
+      </c>
+      <c r="B297">
+        <v>11</v>
+      </c>
+      <c r="C297" t="s">
+        <v>284</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="G297" t="s">
+        <v>14</v>
+      </c>
+      <c r="J297" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>7</v>
+      </c>
+      <c r="B298">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>210</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="G298" t="s">
+        <v>24</v>
+      </c>
+      <c r="H298" t="s">
+        <v>204</v>
+      </c>
+      <c r="J298" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299" t="s">
+        <v>286</v>
+      </c>
+      <c r="G299" t="s">
+        <v>21</v>
+      </c>
+      <c r="H299" t="s">
+        <v>77</v>
+      </c>
+      <c r="J299" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>2</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300" t="s">
+        <v>287</v>
+      </c>
+      <c r="G300" t="s">
+        <v>21</v>
+      </c>
+      <c r="H300" t="s">
+        <v>77</v>
+      </c>
+      <c r="J300" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>3</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>288</v>
+      </c>
+      <c r="G301" t="s">
+        <v>21</v>
+      </c>
+      <c r="H301" t="s">
+        <v>77</v>
+      </c>
+      <c r="J301" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>4</v>
+      </c>
+      <c r="B302">
+        <v>4</v>
+      </c>
+      <c r="C302" t="s">
+        <v>289</v>
+      </c>
+      <c r="G302" t="s">
+        <v>21</v>
+      </c>
+      <c r="H302" t="s">
+        <v>77</v>
+      </c>
+      <c r="J302" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>5</v>
+      </c>
+      <c r="B303">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>290</v>
+      </c>
+      <c r="G303" t="s">
+        <v>21</v>
+      </c>
+      <c r="H303" t="s">
+        <v>36</v>
+      </c>
+      <c r="J303" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>6</v>
+      </c>
+      <c r="B304">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>291</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="G304" t="s">
+        <v>14</v>
+      </c>
+      <c r="H304" t="s">
+        <v>224</v>
+      </c>
+      <c r="J304" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>7</v>
+      </c>
+      <c r="B305">
+        <v>7</v>
+      </c>
+      <c r="C305" t="s">
+        <v>292</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="G305" t="s">
+        <v>14</v>
+      </c>
+      <c r="H305" t="s">
+        <v>224</v>
+      </c>
+      <c r="J305" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>8</v>
+      </c>
+      <c r="B306">
+        <v>8</v>
+      </c>
+      <c r="C306" t="s">
+        <v>69</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="G306" t="s">
+        <v>14</v>
+      </c>
+      <c r="H306" t="s">
+        <v>293</v>
+      </c>
+      <c r="J306" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>9</v>
+      </c>
+      <c r="B307">
+        <v>9</v>
+      </c>
+      <c r="C307" t="s">
+        <v>294</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="G307" t="s">
+        <v>14</v>
+      </c>
+      <c r="H307" t="s">
+        <v>293</v>
+      </c>
+      <c r="J307" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>10</v>
+      </c>
+      <c r="B308">
+        <v>10</v>
+      </c>
+      <c r="C308" t="s">
+        <v>295</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="G308" t="s">
+        <v>14</v>
+      </c>
+      <c r="J308" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>10</v>
+      </c>
+      <c r="B309">
+        <v>11</v>
+      </c>
+      <c r="C309" t="s">
+        <v>199</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="G309" t="s">
+        <v>24</v>
+      </c>
+      <c r="H309" t="s">
+        <v>204</v>
+      </c>
+      <c r="J309" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>11</v>
+      </c>
+      <c r="B310">
+        <v>12</v>
+      </c>
+      <c r="C310" t="s">
+        <v>69</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="G310" t="s">
+        <v>21</v>
+      </c>
+      <c r="H310" t="s">
+        <v>77</v>
+      </c>
+      <c r="J310" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>12</v>
+      </c>
+      <c r="B311">
+        <v>13</v>
+      </c>
+      <c r="C311" t="s">
+        <v>237</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="G311" t="s">
+        <v>24</v>
+      </c>
+      <c r="H311" t="s">
+        <v>204</v>
+      </c>
+      <c r="J311" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>12</v>
+      </c>
+      <c r="B312">
+        <v>14</v>
+      </c>
+      <c r="C312" t="s">
+        <v>296</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="G312" t="s">
+        <v>14</v>
+      </c>
+      <c r="H312" t="s">
+        <v>224</v>
+      </c>
+      <c r="J312" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>13</v>
+      </c>
+      <c r="B313">
+        <v>15</v>
+      </c>
+      <c r="C313" t="s">
+        <v>286</v>
+      </c>
+      <c r="G313" t="s">
+        <v>21</v>
+      </c>
+      <c r="H313" t="s">
+        <v>36</v>
+      </c>
+      <c r="J313" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>14</v>
+      </c>
+      <c r="B314">
+        <v>16</v>
+      </c>
+      <c r="C314" t="s">
+        <v>69</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="G314" t="s">
+        <v>14</v>
+      </c>
+      <c r="H314" t="s">
+        <v>293</v>
+      </c>
+      <c r="J314" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>15</v>
+      </c>
+      <c r="B315">
+        <v>17</v>
+      </c>
+      <c r="C315" t="s">
+        <v>297</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="G315" t="s">
+        <v>21</v>
+      </c>
+      <c r="H315" t="s">
+        <v>36</v>
+      </c>
+      <c r="J315" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>1</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316" t="s">
+        <v>87</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="G316" t="s">
+        <v>222</v>
+      </c>
+      <c r="J316" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317" t="s">
+        <v>65</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="G317" t="s">
+        <v>24</v>
+      </c>
+      <c r="J317" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>1</v>
+      </c>
+      <c r="B318">
+        <v>3</v>
+      </c>
+      <c r="C318" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="G318" t="s">
+        <v>11</v>
+      </c>
+      <c r="J318" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>2</v>
+      </c>
+      <c r="B319">
+        <v>4</v>
+      </c>
+      <c r="C319" t="s">
+        <v>299</v>
+      </c>
+      <c r="G319" t="s">
+        <v>21</v>
+      </c>
+      <c r="H319" t="s">
+        <v>93</v>
+      </c>
+      <c r="J319" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>3</v>
+      </c>
+      <c r="B320">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>300</v>
+      </c>
+      <c r="G320" t="s">
+        <v>21</v>
+      </c>
+      <c r="H320" t="s">
+        <v>93</v>
+      </c>
+      <c r="J320" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>4</v>
+      </c>
+      <c r="B321">
+        <v>6</v>
+      </c>
+      <c r="C321" t="s">
+        <v>301</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="G321" t="s">
+        <v>14</v>
+      </c>
+      <c r="J321" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>4</v>
+      </c>
+      <c r="B322">
+        <v>7</v>
+      </c>
+      <c r="C322" t="s">
+        <v>205</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="G322" t="s">
+        <v>24</v>
+      </c>
+      <c r="J322" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>4</v>
+      </c>
+      <c r="B323">
+        <v>8</v>
+      </c>
+      <c r="C323" t="s">
+        <v>302</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="G323" t="s">
+        <v>14</v>
+      </c>
+      <c r="J323" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>4</v>
+      </c>
+      <c r="B324">
+        <v>9</v>
+      </c>
+      <c r="C324" t="s">
+        <v>226</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="G324" t="s">
+        <v>24</v>
+      </c>
+      <c r="H324" t="s">
+        <v>204</v>
+      </c>
+      <c r="J324" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>5</v>
+      </c>
+      <c r="B325">
+        <v>10</v>
+      </c>
+      <c r="C325" t="s">
+        <v>303</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="G325" t="s">
+        <v>21</v>
+      </c>
+      <c r="H325" t="s">
+        <v>36</v>
+      </c>
+      <c r="J325" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>6</v>
+      </c>
+      <c r="B326">
+        <v>11</v>
+      </c>
+      <c r="C326" t="s">
+        <v>223</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="G326" t="s">
+        <v>21</v>
+      </c>
+      <c r="H326" t="s">
+        <v>36</v>
+      </c>
+      <c r="J326" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>6</v>
+      </c>
+      <c r="B327">
+        <v>12</v>
+      </c>
+      <c r="C327" t="s">
+        <v>304</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="G327" t="s">
+        <v>21</v>
+      </c>
+      <c r="H327" t="s">
+        <v>36</v>
+      </c>
+      <c r="J327" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>7</v>
+      </c>
+      <c r="B328">
+        <v>13</v>
+      </c>
+      <c r="C328" t="s">
+        <v>305</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="G328" t="s">
+        <v>14</v>
+      </c>
+      <c r="J328" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>7</v>
+      </c>
+      <c r="B329">
+        <v>14</v>
+      </c>
+      <c r="C329" t="s">
+        <v>306</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="G329" t="s">
+        <v>24</v>
+      </c>
+      <c r="J329" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>7</v>
+      </c>
+      <c r="B330">
+        <v>15</v>
+      </c>
+      <c r="C330" t="s">
+        <v>209</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="G330" t="s">
+        <v>24</v>
+      </c>
+      <c r="J330" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>7</v>
+      </c>
+      <c r="B331">
+        <v>16</v>
+      </c>
+      <c r="C331" t="s">
+        <v>307</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+      <c r="G331" t="s">
+        <v>21</v>
+      </c>
+      <c r="J331" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>8</v>
+      </c>
+      <c r="B332">
+        <v>17</v>
+      </c>
+      <c r="C332" t="s">
+        <v>308</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="G332" t="s">
+        <v>14</v>
+      </c>
+      <c r="J332" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>8</v>
+      </c>
+      <c r="B333">
+        <v>18</v>
+      </c>
+      <c r="C333" t="s">
+        <v>309</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="G333" t="s">
+        <v>14</v>
+      </c>
+      <c r="J333" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>9</v>
+      </c>
+      <c r="B334">
+        <v>19</v>
+      </c>
+      <c r="C334" t="s">
+        <v>301</v>
+      </c>
+      <c r="G334" t="s">
+        <v>21</v>
+      </c>
+      <c r="J334" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>10</v>
+      </c>
+      <c r="B335">
+        <v>20</v>
+      </c>
+      <c r="C335" t="s">
+        <v>198</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="G335" t="s">
+        <v>21</v>
+      </c>
+      <c r="H335" t="s">
+        <v>36</v>
+      </c>
+      <c r="J335" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>11</v>
+      </c>
+      <c r="B336">
+        <v>21</v>
+      </c>
+      <c r="C336" t="s">
+        <v>310</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="G336" t="s">
+        <v>21</v>
+      </c>
+      <c r="H336" t="s">
+        <v>36</v>
+      </c>
+      <c r="J336" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>12</v>
+      </c>
+      <c r="B337">
+        <v>22</v>
+      </c>
+      <c r="C337" t="s">
+        <v>272</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="G337" t="s">
+        <v>14</v>
+      </c>
+      <c r="H337" t="s">
+        <v>293</v>
+      </c>
+      <c r="J337" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>13</v>
+      </c>
+      <c r="B338">
+        <v>23</v>
+      </c>
+      <c r="C338" t="s">
+        <v>65</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="G338" t="s">
+        <v>311</v>
+      </c>
+      <c r="H338" t="s">
+        <v>204</v>
+      </c>
+      <c r="J338" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>14</v>
+      </c>
+      <c r="B339">
+        <v>24</v>
+      </c>
+      <c r="C339" t="s">
+        <v>209</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="G339" t="s">
+        <v>24</v>
+      </c>
+      <c r="H339" t="s">
+        <v>74</v>
+      </c>
+      <c r="J339" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>15</v>
+      </c>
+      <c r="B340">
+        <v>25</v>
+      </c>
+      <c r="C340" t="s">
+        <v>312</v>
+      </c>
+      <c r="G340" t="s">
+        <v>17</v>
+      </c>
+      <c r="J340" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>16</v>
+      </c>
+      <c r="B341">
+        <v>26</v>
+      </c>
+      <c r="C341" t="s">
+        <v>286</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="G341" t="s">
+        <v>21</v>
+      </c>
+      <c r="J341" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>16</v>
+      </c>
+      <c r="B342">
+        <v>27</v>
+      </c>
+      <c r="C342" t="s">
+        <v>195</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="G342" t="s">
+        <v>24</v>
+      </c>
+      <c r="J342" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>16</v>
+      </c>
+      <c r="B343">
+        <v>28</v>
+      </c>
+      <c r="C343" t="s">
+        <v>28</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="G343" t="s">
+        <v>313</v>
+      </c>
+      <c r="H343" t="s">
+        <v>204</v>
+      </c>
+      <c r="J343" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>16</v>
+      </c>
+      <c r="B344">
+        <v>29</v>
+      </c>
+      <c r="C344" t="s">
+        <v>73</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="G344" t="s">
+        <v>24</v>
+      </c>
+      <c r="J344" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>16</v>
+      </c>
+      <c r="B345">
+        <v>30</v>
+      </c>
+      <c r="C345" t="s">
+        <v>123</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="G345" t="s">
+        <v>14</v>
+      </c>
+      <c r="J345" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>17</v>
+      </c>
+      <c r="B346">
+        <v>31</v>
+      </c>
+      <c r="C346" t="s">
+        <v>38</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="G346" t="s">
+        <v>24</v>
+      </c>
+      <c r="H346" t="s">
+        <v>204</v>
+      </c>
+      <c r="J346" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>17</v>
+      </c>
+      <c r="B347">
+        <v>32</v>
+      </c>
+      <c r="C347" t="s">
+        <v>314</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="G347" t="s">
+        <v>17</v>
+      </c>
+      <c r="H347" t="s">
+        <v>224</v>
+      </c>
+      <c r="J347" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>18</v>
+      </c>
+      <c r="B348">
+        <v>33</v>
+      </c>
+      <c r="C348" t="s">
+        <v>315</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="G348" t="s">
+        <v>14</v>
+      </c>
+      <c r="J348" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>18</v>
+      </c>
+      <c r="B349">
+        <v>34</v>
+      </c>
+      <c r="C349" t="s">
+        <v>316</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+      <c r="G349" t="s">
+        <v>14</v>
+      </c>
+      <c r="J349" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>19</v>
+      </c>
+      <c r="B350">
+        <v>35</v>
+      </c>
+      <c r="C350" t="s">
+        <v>317</v>
+      </c>
+      <c r="G350" t="s">
+        <v>21</v>
+      </c>
+      <c r="H350" t="s">
+        <v>36</v>
+      </c>
+      <c r="J350" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>20</v>
+      </c>
+      <c r="B351">
+        <v>36</v>
+      </c>
+      <c r="C351" t="s">
+        <v>318</v>
+      </c>
+      <c r="G351" t="s">
+        <v>21</v>
+      </c>
+      <c r="H351" t="s">
+        <v>36</v>
+      </c>
+      <c r="J351" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>21</v>
+      </c>
+      <c r="B352">
+        <v>37</v>
+      </c>
+      <c r="C352" t="s">
+        <v>199</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="G352" t="s">
+        <v>319</v>
+      </c>
+      <c r="J352" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>22</v>
+      </c>
+      <c r="B353">
+        <v>38</v>
+      </c>
+      <c r="C353" t="s">
+        <v>73</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="G353" t="s">
+        <v>311</v>
+      </c>
+      <c r="H353" t="s">
+        <v>204</v>
+      </c>
+      <c r="J353" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>23</v>
+      </c>
+      <c r="B354">
+        <v>39</v>
+      </c>
+      <c r="C354" t="s">
+        <v>320</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="G354" t="s">
+        <v>17</v>
+      </c>
+      <c r="J354" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>24</v>
+      </c>
+      <c r="B355">
+        <v>40</v>
+      </c>
+      <c r="C355" t="s">
+        <v>296</v>
+      </c>
+      <c r="G355" t="s">
+        <v>21</v>
+      </c>
+      <c r="H355" t="s">
+        <v>36</v>
+      </c>
+      <c r="J355" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>25</v>
+      </c>
+      <c r="B356">
+        <v>41</v>
+      </c>
+      <c r="C356" t="s">
+        <v>219</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="G356" t="s">
+        <v>21</v>
+      </c>
+      <c r="H356" t="s">
+        <v>36</v>
+      </c>
+      <c r="J356" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>26</v>
+      </c>
+      <c r="B357">
+        <v>42</v>
+      </c>
+      <c r="C357" t="s">
+        <v>286</v>
+      </c>
+      <c r="G357" t="s">
+        <v>14</v>
+      </c>
+      <c r="H357" t="s">
+        <v>293</v>
+      </c>
+      <c r="J357" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>27</v>
+      </c>
+      <c r="B358">
+        <v>43</v>
+      </c>
+      <c r="C358" t="s">
+        <v>30</v>
+      </c>
+      <c r="G358" t="s">
+        <v>21</v>
+      </c>
+      <c r="H358" t="s">
+        <v>77</v>
+      </c>
+      <c r="J358" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>28</v>
+      </c>
+      <c r="B359">
+        <v>44</v>
+      </c>
+      <c r="C359" t="s">
+        <v>286</v>
+      </c>
+      <c r="G359" t="s">
+        <v>21</v>
+      </c>
+      <c r="H359" t="s">
+        <v>93</v>
+      </c>
+      <c r="J359" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>29</v>
+      </c>
+      <c r="B360">
+        <v>45</v>
+      </c>
+      <c r="C360" t="s">
+        <v>321</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="G360" t="s">
+        <v>14</v>
+      </c>
+      <c r="H360" t="s">
+        <v>77</v>
+      </c>
+      <c r="J360" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>30</v>
+      </c>
+      <c r="B361">
+        <v>46</v>
+      </c>
+      <c r="C361" t="s">
+        <v>322</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="G361" t="s">
+        <v>21</v>
+      </c>
+      <c r="H361" t="s">
+        <v>36</v>
+      </c>
+      <c r="J361" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>31</v>
+      </c>
+      <c r="B362">
+        <v>47</v>
+      </c>
+      <c r="C362" t="s">
+        <v>69</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="G362" t="s">
+        <v>21</v>
+      </c>
+      <c r="H362" t="s">
+        <v>36</v>
+      </c>
+      <c r="J362" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>32</v>
+      </c>
+      <c r="B363">
+        <v>48</v>
+      </c>
+      <c r="C363" t="s">
+        <v>282</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="G363" t="s">
+        <v>14</v>
+      </c>
+      <c r="H363" t="s">
+        <v>224</v>
+      </c>
+      <c r="J363" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>32</v>
+      </c>
+      <c r="B364">
+        <v>49</v>
+      </c>
+      <c r="C364" t="s">
+        <v>210</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="G364" t="s">
+        <v>24</v>
+      </c>
+      <c r="H364" t="s">
+        <v>204</v>
+      </c>
+      <c r="J364" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>33</v>
+      </c>
+      <c r="B365">
+        <v>50</v>
+      </c>
+      <c r="C365" t="s">
+        <v>323</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="G365" t="s">
+        <v>14</v>
+      </c>
+      <c r="H365" t="s">
+        <v>224</v>
+      </c>
+      <c r="J365" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>34</v>
+      </c>
+      <c r="B366">
+        <v>51</v>
+      </c>
+      <c r="C366" t="s">
+        <v>324</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="G366" t="s">
+        <v>14</v>
+      </c>
+      <c r="H366" t="s">
+        <v>224</v>
+      </c>
+      <c r="J366" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>34</v>
+      </c>
+      <c r="B367">
+        <v>52</v>
+      </c>
+      <c r="C367" t="s">
+        <v>325</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="G367" t="s">
+        <v>14</v>
+      </c>
+      <c r="H367" t="s">
+        <v>224</v>
+      </c>
+      <c r="J367" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>35</v>
+      </c>
+      <c r="B368">
+        <v>53</v>
+      </c>
+      <c r="C368" t="s">
+        <v>307</v>
+      </c>
+      <c r="G368" t="s">
+        <v>21</v>
+      </c>
+      <c r="H368" t="s">
+        <v>36</v>
+      </c>
+      <c r="J368" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>36</v>
+      </c>
+      <c r="B369">
+        <v>54</v>
+      </c>
+      <c r="C369" t="s">
+        <v>30</v>
+      </c>
+      <c r="G369" t="s">
+        <v>21</v>
+      </c>
+      <c r="H369" t="s">
+        <v>108</v>
+      </c>
+      <c r="J369" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>37</v>
+      </c>
+      <c r="B370">
+        <v>55</v>
+      </c>
+      <c r="C370" t="s">
+        <v>207</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="G370" t="s">
+        <v>34</v>
+      </c>
+      <c r="H370" t="s">
+        <v>326</v>
+      </c>
+      <c r="J370" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>38</v>
+      </c>
+      <c r="B371">
+        <v>56</v>
+      </c>
+      <c r="C371" t="s">
+        <v>327</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="G371" t="s">
+        <v>21</v>
+      </c>
+      <c r="H371" t="s">
+        <v>36</v>
+      </c>
+      <c r="J371" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>39</v>
+      </c>
+      <c r="B372">
+        <v>57</v>
+      </c>
+      <c r="C372" t="s">
+        <v>120</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="G372" t="s">
+        <v>21</v>
+      </c>
+      <c r="H372" t="s">
+        <v>36</v>
+      </c>
+      <c r="J372" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>40</v>
+      </c>
+      <c r="B373">
+        <v>58</v>
+      </c>
+      <c r="C373" t="s">
+        <v>328</v>
+      </c>
+      <c r="G373" t="s">
+        <v>14</v>
+      </c>
+      <c r="H373" t="s">
+        <v>49</v>
+      </c>
+      <c r="J373" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>41</v>
+      </c>
+      <c r="B374">
+        <v>59</v>
+      </c>
+      <c r="C374" t="s">
+        <v>329</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="G374" t="s">
+        <v>14</v>
+      </c>
+      <c r="J374" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>42</v>
+      </c>
+      <c r="B375">
+        <v>60</v>
+      </c>
+      <c r="C375" t="s">
+        <v>330</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="G375" t="s">
+        <v>14</v>
+      </c>
+      <c r="J375" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>43</v>
+      </c>
+      <c r="B376">
+        <v>61</v>
+      </c>
+      <c r="C376" t="s">
+        <v>331</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="G376" t="s">
+        <v>14</v>
+      </c>
+      <c r="J376" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/koston/data/koston.xlsx
+++ b/koston/data/koston.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jared.wilber\Desktop\jenkem_data\koston\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6490ACC-CD6F-4960-8778-F8DEE25118B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8412666B-668B-4030-8838-446CB189E1CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5644D466-66B3-4E17-B94A-2921DC353073}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="424">
   <si>
     <t>clip_index</t>
   </si>
@@ -1027,6 +1027,282 @@
   </si>
   <si>
     <t>switch flip to fs crook</t>
+  </si>
+  <si>
+    <t>Chocolate - The Chocolate Tour</t>
+  </si>
+  <si>
+    <t>fakie fs 5-0 to regular</t>
+  </si>
+  <si>
+    <t>switch bs 180 to 5-0</t>
+  </si>
+  <si>
+    <t>bs tailslide to bs shuv-it</t>
+  </si>
+  <si>
+    <t>kickflip to bs 5-0</t>
+  </si>
+  <si>
+    <t>switch varial heelflip</t>
+  </si>
+  <si>
+    <t>kickflip bs tailslide to fakie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kickflip to bs nosegrind  </t>
+  </si>
+  <si>
+    <t>fakie fs 5-0 to fakie fs flip</t>
+  </si>
+  <si>
+    <t>switch bs shuv-it to nosegrind to fakie fs shuv-it</t>
+  </si>
+  <si>
+    <t>bs noseblunt</t>
+  </si>
+  <si>
+    <t>taildrop to fs 5050</t>
+  </si>
+  <si>
+    <t>bs crailslide</t>
+  </si>
+  <si>
+    <t>over handrail</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>fs noseblunt to nosemanual</t>
+  </si>
+  <si>
+    <t>ledge, manual</t>
+  </si>
+  <si>
+    <t>fakie 360 flip to switch manual</t>
+  </si>
+  <si>
+    <t>fs 180 to switch 5050</t>
+  </si>
+  <si>
+    <t>fakie fs crook</t>
+  </si>
+  <si>
+    <t>nollie bs bluntslide</t>
+  </si>
+  <si>
+    <t>nollie bs 360 heelflip</t>
+  </si>
+  <si>
+    <t>nollie fs crook</t>
+  </si>
+  <si>
+    <t>fakie fs crook to bs 5-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fakie 360 flip </t>
+  </si>
+  <si>
+    <t>fakie switch fs bluntslide</t>
+  </si>
+  <si>
+    <t>switch fs shuv-it to nosegrind to revert</t>
+  </si>
+  <si>
+    <t>flatbar</t>
+  </si>
+  <si>
+    <t>fakie bs hurricant to 270</t>
+  </si>
+  <si>
+    <t>nollie inward heelflip to fs noseslide</t>
+  </si>
+  <si>
+    <t>fakie 5-0 to halfcab flip</t>
+  </si>
+  <si>
+    <t>heelflip nosemanual to bs nosegrind popout</t>
+  </si>
+  <si>
+    <t>manual, ledge</t>
+  </si>
+  <si>
+    <t>switch crook to manual to fs shuv-it</t>
+  </si>
+  <si>
+    <t>fakie fs flip to manual to 180 to switch manual</t>
+  </si>
+  <si>
+    <t>nollie fs bigspin to switch manual to switch bs bigspin</t>
+  </si>
+  <si>
+    <t>nollie bs 180 to switch manual to switch fs bigspin</t>
+  </si>
+  <si>
+    <t>bs flip to fakie manual to halfcab flip</t>
+  </si>
+  <si>
+    <t>kickflip to fs tailslide to fakie</t>
+  </si>
+  <si>
+    <t>bs lipslide to fs bluntslide</t>
+  </si>
+  <si>
+    <t>fakie fs heelflip</t>
+  </si>
+  <si>
+    <t>bs bigspin</t>
+  </si>
+  <si>
+    <t>gap to bank</t>
+  </si>
+  <si>
+    <t>switch bs heelflip</t>
+  </si>
+  <si>
+    <t>triple set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stair </t>
+  </si>
+  <si>
+    <t>fs tailslide to switch bs tailslide</t>
+  </si>
+  <si>
+    <t>double set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch bs bigspin  </t>
+  </si>
+  <si>
+    <t>switch fs shuv-it to switch bluntslide</t>
+  </si>
+  <si>
+    <t>nollie bs 180 to switch feeble to regular</t>
+  </si>
+  <si>
+    <t>fakie 360 flip</t>
+  </si>
+  <si>
+    <t>macba</t>
+  </si>
+  <si>
+    <t>Lakai - Fully Flared</t>
+  </si>
+  <si>
+    <t>Nike - The SB Chronicles Vol. 3</t>
+  </si>
+  <si>
+    <t>bs wallie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kickflip to manual </t>
+  </si>
+  <si>
+    <t>wallie</t>
+  </si>
+  <si>
+    <t>treestump</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>fs bluntslide to 5050</t>
+  </si>
+  <si>
+    <t>pole jam</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>bs boardslide pop-out</t>
+  </si>
+  <si>
+    <t>wallie to bs 5050</t>
+  </si>
+  <si>
+    <t>wall to ledge</t>
+  </si>
+  <si>
+    <t>pole jam to bs wallride</t>
+  </si>
+  <si>
+    <t>wall, over obstacle</t>
+  </si>
+  <si>
+    <t>bs bluntslide to fs 270</t>
+  </si>
+  <si>
+    <t>ledge to wall</t>
+  </si>
+  <si>
+    <t>bank to table</t>
+  </si>
+  <si>
+    <t>wallie to fs 180</t>
+  </si>
+  <si>
+    <t>halfcab to manual to bs flip</t>
+  </si>
+  <si>
+    <t>impossible</t>
+  </si>
+  <si>
+    <t>hydrant</t>
+  </si>
+  <si>
+    <t>fs 180 to fakie 5-0 to fakie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ollie to manual  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">360 flip  </t>
+  </si>
+  <si>
+    <t>switch fs 5050</t>
+  </si>
+  <si>
+    <t>bs smith to bs 180 to fakie manual to halfcab</t>
+  </si>
+  <si>
+    <t>ledge to manual</t>
+  </si>
+  <si>
+    <t>wallie to bs tailslide to fakie</t>
+  </si>
+  <si>
+    <t>wallie to ledge</t>
+  </si>
+  <si>
+    <t>switch fs tailslide to switch fs 5-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs flip to fakie manual to halfcab  </t>
+  </si>
+  <si>
+    <t>bs boardslide to bs feeble</t>
+  </si>
+  <si>
+    <t>switch fs feeble to regular</t>
+  </si>
+  <si>
+    <t>fs tailslide to kickflip to fakie</t>
+  </si>
+  <si>
+    <t>ledge to bank</t>
+  </si>
+  <si>
+    <t>bs feeble to wallride to fakie</t>
+  </si>
+  <si>
+    <t>ledge, wall</t>
+  </si>
+  <si>
+    <t>bs lipslide to wallride</t>
   </si>
 </sst>
 </file>
@@ -1378,11 +1654,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA88418-AAB9-4F27-A456-87056BC11CAB}">
-  <dimension ref="A1:J376"/>
+  <dimension ref="A1:J496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I376" sqref="I376"/>
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N492" sqref="N492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9351,6 +9627,2571 @@
         <v>298</v>
       </c>
     </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>1</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377" t="s">
+        <v>200</v>
+      </c>
+      <c r="G377" t="s">
+        <v>326</v>
+      </c>
+      <c r="J377" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>2</v>
+      </c>
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378" t="s">
+        <v>300</v>
+      </c>
+      <c r="G378" t="s">
+        <v>21</v>
+      </c>
+      <c r="H378" t="s">
+        <v>77</v>
+      </c>
+      <c r="J378" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>3</v>
+      </c>
+      <c r="B379">
+        <v>3</v>
+      </c>
+      <c r="C379" t="s">
+        <v>333</v>
+      </c>
+      <c r="G379" t="s">
+        <v>21</v>
+      </c>
+      <c r="H379" t="s">
+        <v>36</v>
+      </c>
+      <c r="J379" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>4</v>
+      </c>
+      <c r="B380">
+        <v>4</v>
+      </c>
+      <c r="C380" t="s">
+        <v>272</v>
+      </c>
+      <c r="G380" t="s">
+        <v>21</v>
+      </c>
+      <c r="H380" t="s">
+        <v>36</v>
+      </c>
+      <c r="J380" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>5</v>
+      </c>
+      <c r="B381">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>334</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="G381" t="s">
+        <v>14</v>
+      </c>
+      <c r="H381" t="s">
+        <v>293</v>
+      </c>
+      <c r="J381" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>6</v>
+      </c>
+      <c r="B382">
+        <v>6</v>
+      </c>
+      <c r="C382" t="s">
+        <v>335</v>
+      </c>
+      <c r="G382" t="s">
+        <v>14</v>
+      </c>
+      <c r="H382" t="s">
+        <v>293</v>
+      </c>
+      <c r="J382" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>7</v>
+      </c>
+      <c r="B383">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>336</v>
+      </c>
+      <c r="G383" t="s">
+        <v>14</v>
+      </c>
+      <c r="H383" t="s">
+        <v>293</v>
+      </c>
+      <c r="J383" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>8</v>
+      </c>
+      <c r="B384">
+        <v>8</v>
+      </c>
+      <c r="C384" t="s">
+        <v>38</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="G384" t="s">
+        <v>222</v>
+      </c>
+      <c r="J384" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>8</v>
+      </c>
+      <c r="B385">
+        <v>9</v>
+      </c>
+      <c r="C385" t="s">
+        <v>237</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="G385" t="s">
+        <v>24</v>
+      </c>
+      <c r="H385" t="s">
+        <v>74</v>
+      </c>
+      <c r="J385" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>8</v>
+      </c>
+      <c r="B386">
+        <v>10</v>
+      </c>
+      <c r="C386" t="s">
+        <v>163</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="G386" t="s">
+        <v>24</v>
+      </c>
+      <c r="J386" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>9</v>
+      </c>
+      <c r="B387">
+        <v>11</v>
+      </c>
+      <c r="C387" t="s">
+        <v>337</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="G387" t="s">
+        <v>326</v>
+      </c>
+      <c r="J387" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>10</v>
+      </c>
+      <c r="B388">
+        <v>12</v>
+      </c>
+      <c r="C388" t="s">
+        <v>338</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="G388" t="s">
+        <v>14</v>
+      </c>
+      <c r="J388" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>10</v>
+      </c>
+      <c r="B389">
+        <v>13</v>
+      </c>
+      <c r="C389" t="s">
+        <v>296</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="G389" t="s">
+        <v>14</v>
+      </c>
+      <c r="J389" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>10</v>
+      </c>
+      <c r="B390">
+        <v>14</v>
+      </c>
+      <c r="C390" t="s">
+        <v>339</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="G390" t="s">
+        <v>14</v>
+      </c>
+      <c r="J390" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>11</v>
+      </c>
+      <c r="B391">
+        <v>15</v>
+      </c>
+      <c r="C391" t="s">
+        <v>340</v>
+      </c>
+      <c r="G391" t="s">
+        <v>14</v>
+      </c>
+      <c r="H391" t="s">
+        <v>49</v>
+      </c>
+      <c r="J391" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>12</v>
+      </c>
+      <c r="B392">
+        <v>16</v>
+      </c>
+      <c r="C392" t="s">
+        <v>341</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="G392" t="s">
+        <v>14</v>
+      </c>
+      <c r="H392" t="s">
+        <v>49</v>
+      </c>
+      <c r="J392" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>13</v>
+      </c>
+      <c r="B393">
+        <v>17</v>
+      </c>
+      <c r="C393" t="s">
+        <v>302</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="G393" t="s">
+        <v>14</v>
+      </c>
+      <c r="J393" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <v>14</v>
+      </c>
+      <c r="B394">
+        <v>18</v>
+      </c>
+      <c r="C394" t="s">
+        <v>342</v>
+      </c>
+      <c r="F394">
+        <v>1</v>
+      </c>
+      <c r="G394" t="s">
+        <v>14</v>
+      </c>
+      <c r="H394" t="s">
+        <v>293</v>
+      </c>
+      <c r="J394" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>15</v>
+      </c>
+      <c r="B395">
+        <v>19</v>
+      </c>
+      <c r="C395" t="s">
+        <v>208</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="F395">
+        <v>1</v>
+      </c>
+      <c r="G395" t="s">
+        <v>11</v>
+      </c>
+      <c r="J395" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <v>16</v>
+      </c>
+      <c r="B396">
+        <v>20</v>
+      </c>
+      <c r="C396" t="s">
+        <v>199</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="F396">
+        <v>1</v>
+      </c>
+      <c r="G396" t="s">
+        <v>11</v>
+      </c>
+      <c r="J396" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>17</v>
+      </c>
+      <c r="B397">
+        <v>21</v>
+      </c>
+      <c r="C397" t="s">
+        <v>246</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="F397">
+        <v>1</v>
+      </c>
+      <c r="G397" t="s">
+        <v>21</v>
+      </c>
+      <c r="H397" t="s">
+        <v>36</v>
+      </c>
+      <c r="J397" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>18</v>
+      </c>
+      <c r="B398">
+        <v>21</v>
+      </c>
+      <c r="C398" t="s">
+        <v>246</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="F398">
+        <v>1</v>
+      </c>
+      <c r="G398" t="s">
+        <v>21</v>
+      </c>
+      <c r="H398" t="s">
+        <v>36</v>
+      </c>
+      <c r="J398" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>1</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399" t="s">
+        <v>343</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+      <c r="G399" t="s">
+        <v>21</v>
+      </c>
+      <c r="H399" t="s">
+        <v>36</v>
+      </c>
+      <c r="J399" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <v>1</v>
+      </c>
+      <c r="B400">
+        <v>2</v>
+      </c>
+      <c r="C400" t="s">
+        <v>38</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="G400" t="s">
+        <v>222</v>
+      </c>
+      <c r="J400" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <v>1</v>
+      </c>
+      <c r="B401">
+        <v>3</v>
+      </c>
+      <c r="C401" t="s">
+        <v>301</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+      <c r="G401" t="s">
+        <v>21</v>
+      </c>
+      <c r="H401" t="s">
+        <v>36</v>
+      </c>
+      <c r="J401" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <v>2</v>
+      </c>
+      <c r="B402">
+        <v>4</v>
+      </c>
+      <c r="C402" t="s">
+        <v>344</v>
+      </c>
+      <c r="G402" t="s">
+        <v>98</v>
+      </c>
+      <c r="H402" t="s">
+        <v>97</v>
+      </c>
+      <c r="J402" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <v>3</v>
+      </c>
+      <c r="B403">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>227</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="G403" t="s">
+        <v>34</v>
+      </c>
+      <c r="J403" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <v>4</v>
+      </c>
+      <c r="B404">
+        <v>6</v>
+      </c>
+      <c r="C404" t="s">
+        <v>237</v>
+      </c>
+      <c r="G404" t="s">
+        <v>313</v>
+      </c>
+      <c r="J404" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A405">
+        <v>5</v>
+      </c>
+      <c r="B405">
+        <v>7</v>
+      </c>
+      <c r="C405" t="s">
+        <v>201</v>
+      </c>
+      <c r="G405" t="s">
+        <v>11</v>
+      </c>
+      <c r="H405" t="s">
+        <v>345</v>
+      </c>
+      <c r="J405" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A406">
+        <v>6</v>
+      </c>
+      <c r="B406">
+        <v>8</v>
+      </c>
+      <c r="C406" t="s">
+        <v>25</v>
+      </c>
+      <c r="G406" t="s">
+        <v>34</v>
+      </c>
+      <c r="H406" t="s">
+        <v>346</v>
+      </c>
+      <c r="J406" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <v>7</v>
+      </c>
+      <c r="B407">
+        <v>9</v>
+      </c>
+      <c r="C407" t="s">
+        <v>81</v>
+      </c>
+      <c r="G407" t="s">
+        <v>17</v>
+      </c>
+      <c r="J407" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A408">
+        <v>8</v>
+      </c>
+      <c r="B408">
+        <v>10</v>
+      </c>
+      <c r="C408" t="s">
+        <v>347</v>
+      </c>
+      <c r="G408" t="s">
+        <v>348</v>
+      </c>
+      <c r="J408" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A409">
+        <v>9</v>
+      </c>
+      <c r="B409">
+        <v>11</v>
+      </c>
+      <c r="C409" t="s">
+        <v>349</v>
+      </c>
+      <c r="G409" t="s">
+        <v>17</v>
+      </c>
+      <c r="J409" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <v>10</v>
+      </c>
+      <c r="B410">
+        <v>12</v>
+      </c>
+      <c r="C410" t="s">
+        <v>350</v>
+      </c>
+      <c r="G410" t="s">
+        <v>21</v>
+      </c>
+      <c r="H410" t="s">
+        <v>36</v>
+      </c>
+      <c r="J410" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A411">
+        <v>11</v>
+      </c>
+      <c r="B411">
+        <v>13</v>
+      </c>
+      <c r="C411" t="s">
+        <v>351</v>
+      </c>
+      <c r="G411" t="s">
+        <v>14</v>
+      </c>
+      <c r="J411" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A412">
+        <v>12</v>
+      </c>
+      <c r="B412">
+        <v>14</v>
+      </c>
+      <c r="C412" t="s">
+        <v>352</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="G412" t="s">
+        <v>21</v>
+      </c>
+      <c r="H412" t="s">
+        <v>36</v>
+      </c>
+      <c r="J412" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A413">
+        <v>13</v>
+      </c>
+      <c r="B413">
+        <v>15</v>
+      </c>
+      <c r="C413" t="s">
+        <v>353</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="G413" t="s">
+        <v>19</v>
+      </c>
+      <c r="H413" t="s">
+        <v>110</v>
+      </c>
+      <c r="J413" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A414">
+        <v>14</v>
+      </c>
+      <c r="B414">
+        <v>16</v>
+      </c>
+      <c r="C414" t="s">
+        <v>354</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+      <c r="G414" t="s">
+        <v>14</v>
+      </c>
+      <c r="J414" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A415">
+        <v>14</v>
+      </c>
+      <c r="B415">
+        <v>17</v>
+      </c>
+      <c r="C415" t="s">
+        <v>243</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+      <c r="G415" t="s">
+        <v>21</v>
+      </c>
+      <c r="H415" t="s">
+        <v>36</v>
+      </c>
+      <c r="J415" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A416">
+        <v>15</v>
+      </c>
+      <c r="B416">
+        <v>18</v>
+      </c>
+      <c r="C416" t="s">
+        <v>317</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="G416" t="s">
+        <v>14</v>
+      </c>
+      <c r="J416" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A417">
+        <v>15</v>
+      </c>
+      <c r="B417">
+        <v>19</v>
+      </c>
+      <c r="C417" t="s">
+        <v>355</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+      <c r="G417" t="s">
+        <v>14</v>
+      </c>
+      <c r="J417" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A418">
+        <v>16</v>
+      </c>
+      <c r="B418">
+        <v>20</v>
+      </c>
+      <c r="C418" t="s">
+        <v>307</v>
+      </c>
+      <c r="F418">
+        <v>1</v>
+      </c>
+      <c r="G418" t="s">
+        <v>49</v>
+      </c>
+      <c r="J418" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A419">
+        <v>17</v>
+      </c>
+      <c r="B419">
+        <v>21</v>
+      </c>
+      <c r="C419" t="s">
+        <v>208</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+      <c r="E419">
+        <v>1</v>
+      </c>
+      <c r="G419" t="s">
+        <v>222</v>
+      </c>
+      <c r="J419" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A420">
+        <v>17</v>
+      </c>
+      <c r="B420">
+        <v>22</v>
+      </c>
+      <c r="C420" t="s">
+        <v>356</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="G420" t="s">
+        <v>24</v>
+      </c>
+      <c r="J420" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A421">
+        <v>17</v>
+      </c>
+      <c r="B421">
+        <v>23</v>
+      </c>
+      <c r="C421" t="s">
+        <v>170</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+      <c r="G421" t="s">
+        <v>11</v>
+      </c>
+      <c r="J421" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A422">
+        <v>18</v>
+      </c>
+      <c r="B422">
+        <v>24</v>
+      </c>
+      <c r="C422" t="s">
+        <v>357</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+      <c r="G422" t="s">
+        <v>14</v>
+      </c>
+      <c r="J422" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A423">
+        <v>18</v>
+      </c>
+      <c r="B423">
+        <v>25</v>
+      </c>
+      <c r="C423" t="s">
+        <v>358</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>1</v>
+      </c>
+      <c r="G423" t="s">
+        <v>14</v>
+      </c>
+      <c r="J423" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A424">
+        <v>19</v>
+      </c>
+      <c r="B424">
+        <v>26</v>
+      </c>
+      <c r="C424" t="s">
+        <v>282</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>1</v>
+      </c>
+      <c r="G424" t="s">
+        <v>21</v>
+      </c>
+      <c r="H424" t="s">
+        <v>359</v>
+      </c>
+      <c r="J424" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A425">
+        <v>19</v>
+      </c>
+      <c r="B425">
+        <v>27</v>
+      </c>
+      <c r="C425" t="s">
+        <v>360</v>
+      </c>
+      <c r="E425">
+        <v>1</v>
+      </c>
+      <c r="G425" t="s">
+        <v>21</v>
+      </c>
+      <c r="H425" t="s">
+        <v>359</v>
+      </c>
+      <c r="J425" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A426">
+        <v>20</v>
+      </c>
+      <c r="B426">
+        <v>28</v>
+      </c>
+      <c r="C426" t="s">
+        <v>236</v>
+      </c>
+      <c r="E426">
+        <v>1</v>
+      </c>
+      <c r="G426" t="s">
+        <v>14</v>
+      </c>
+      <c r="J426" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A427">
+        <v>20</v>
+      </c>
+      <c r="B427">
+        <v>29</v>
+      </c>
+      <c r="C427" t="s">
+        <v>361</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427">
+        <v>1</v>
+      </c>
+      <c r="G427" t="s">
+        <v>14</v>
+      </c>
+      <c r="J427" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A428">
+        <v>21</v>
+      </c>
+      <c r="B428">
+        <v>30</v>
+      </c>
+      <c r="C428" t="s">
+        <v>200</v>
+      </c>
+      <c r="E428">
+        <v>1</v>
+      </c>
+      <c r="G428" t="s">
+        <v>24</v>
+      </c>
+      <c r="H428" t="s">
+        <v>204</v>
+      </c>
+      <c r="J428" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A429">
+        <v>21</v>
+      </c>
+      <c r="B429">
+        <v>31</v>
+      </c>
+      <c r="C429" t="s">
+        <v>362</v>
+      </c>
+      <c r="E429">
+        <v>1</v>
+      </c>
+      <c r="G429" t="s">
+        <v>21</v>
+      </c>
+      <c r="H429" t="s">
+        <v>359</v>
+      </c>
+      <c r="J429" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A430">
+        <v>22</v>
+      </c>
+      <c r="B430">
+        <v>32</v>
+      </c>
+      <c r="C430" t="s">
+        <v>363</v>
+      </c>
+      <c r="G430" t="s">
+        <v>364</v>
+      </c>
+      <c r="J430" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A431">
+        <v>23</v>
+      </c>
+      <c r="B431">
+        <v>33</v>
+      </c>
+      <c r="C431" t="s">
+        <v>365</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="G431" t="s">
+        <v>364</v>
+      </c>
+      <c r="J431" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A432">
+        <v>24</v>
+      </c>
+      <c r="B432">
+        <v>34</v>
+      </c>
+      <c r="C432" t="s">
+        <v>366</v>
+      </c>
+      <c r="G432" t="s">
+        <v>17</v>
+      </c>
+      <c r="J432" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A433">
+        <v>25</v>
+      </c>
+      <c r="B433">
+        <v>35</v>
+      </c>
+      <c r="C433" t="s">
+        <v>367</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="G433" t="s">
+        <v>17</v>
+      </c>
+      <c r="J433" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <v>26</v>
+      </c>
+      <c r="B434">
+        <v>36</v>
+      </c>
+      <c r="C434" t="s">
+        <v>368</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="G434" t="s">
+        <v>17</v>
+      </c>
+      <c r="H434" t="s">
+        <v>224</v>
+      </c>
+      <c r="J434" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <v>27</v>
+      </c>
+      <c r="B435">
+        <v>37</v>
+      </c>
+      <c r="C435" t="s">
+        <v>369</v>
+      </c>
+      <c r="G435" t="s">
+        <v>17</v>
+      </c>
+      <c r="J435" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <v>28</v>
+      </c>
+      <c r="B436">
+        <v>38</v>
+      </c>
+      <c r="C436" t="s">
+        <v>370</v>
+      </c>
+      <c r="G436" t="s">
+        <v>14</v>
+      </c>
+      <c r="H436" t="s">
+        <v>293</v>
+      </c>
+      <c r="J436" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A437">
+        <v>29</v>
+      </c>
+      <c r="B437">
+        <v>39</v>
+      </c>
+      <c r="C437" t="s">
+        <v>371</v>
+      </c>
+      <c r="F437">
+        <v>1</v>
+      </c>
+      <c r="G437" t="s">
+        <v>14</v>
+      </c>
+      <c r="J437" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A438">
+        <v>30</v>
+      </c>
+      <c r="B438">
+        <v>40</v>
+      </c>
+      <c r="C438" t="s">
+        <v>372</v>
+      </c>
+      <c r="G438" t="s">
+        <v>11</v>
+      </c>
+      <c r="J438" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <v>31</v>
+      </c>
+      <c r="B439">
+        <v>41</v>
+      </c>
+      <c r="C439" t="s">
+        <v>373</v>
+      </c>
+      <c r="G439" t="s">
+        <v>34</v>
+      </c>
+      <c r="H439" t="s">
+        <v>374</v>
+      </c>
+      <c r="J439" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <v>32</v>
+      </c>
+      <c r="B440">
+        <v>42</v>
+      </c>
+      <c r="C440" t="s">
+        <v>73</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="G440" t="s">
+        <v>34</v>
+      </c>
+      <c r="H440" t="s">
+        <v>319</v>
+      </c>
+      <c r="J440" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <v>33</v>
+      </c>
+      <c r="B441">
+        <v>43</v>
+      </c>
+      <c r="C441" t="s">
+        <v>337</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="G441" t="s">
+        <v>34</v>
+      </c>
+      <c r="H441" t="s">
+        <v>319</v>
+      </c>
+      <c r="J441" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <v>34</v>
+      </c>
+      <c r="B442">
+        <v>44</v>
+      </c>
+      <c r="C442" t="s">
+        <v>375</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="G442" t="s">
+        <v>11</v>
+      </c>
+      <c r="H442" t="s">
+        <v>376</v>
+      </c>
+      <c r="J442" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <v>35</v>
+      </c>
+      <c r="B443">
+        <v>45</v>
+      </c>
+      <c r="C443" t="s">
+        <v>62</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="G443" t="s">
+        <v>377</v>
+      </c>
+      <c r="H443" t="s">
+        <v>376</v>
+      </c>
+      <c r="J443" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <v>36</v>
+      </c>
+      <c r="B444">
+        <v>45</v>
+      </c>
+      <c r="C444" t="s">
+        <v>62</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="G444" t="s">
+        <v>11</v>
+      </c>
+      <c r="H444" t="s">
+        <v>376</v>
+      </c>
+      <c r="J444" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <v>37</v>
+      </c>
+      <c r="B445">
+        <v>46</v>
+      </c>
+      <c r="C445" t="s">
+        <v>378</v>
+      </c>
+      <c r="G445" t="s">
+        <v>14</v>
+      </c>
+      <c r="J445" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <v>38</v>
+      </c>
+      <c r="B446">
+        <v>47</v>
+      </c>
+      <c r="C446" t="s">
+        <v>29</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+      <c r="F446">
+        <v>1</v>
+      </c>
+      <c r="G446" t="s">
+        <v>11</v>
+      </c>
+      <c r="H446" t="s">
+        <v>379</v>
+      </c>
+      <c r="J446" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <v>39</v>
+      </c>
+      <c r="B447">
+        <v>47</v>
+      </c>
+      <c r="C447" t="s">
+        <v>29</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
+      <c r="G447" t="s">
+        <v>11</v>
+      </c>
+      <c r="H447" t="s">
+        <v>379</v>
+      </c>
+      <c r="J447" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <v>40</v>
+      </c>
+      <c r="B448">
+        <v>48</v>
+      </c>
+      <c r="C448" t="s">
+        <v>380</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="F448">
+        <v>1</v>
+      </c>
+      <c r="G448" t="s">
+        <v>11</v>
+      </c>
+      <c r="H448" t="s">
+        <v>379</v>
+      </c>
+      <c r="J448" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A449">
+        <v>41</v>
+      </c>
+      <c r="B449">
+        <v>49</v>
+      </c>
+      <c r="C449" t="s">
+        <v>195</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="G449" t="s">
+        <v>11</v>
+      </c>
+      <c r="J449" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A450">
+        <v>42</v>
+      </c>
+      <c r="B450">
+        <v>50</v>
+      </c>
+      <c r="C450" t="s">
+        <v>381</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="F450">
+        <v>1</v>
+      </c>
+      <c r="G450" t="s">
+        <v>21</v>
+      </c>
+      <c r="H450" t="s">
+        <v>36</v>
+      </c>
+      <c r="J450" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A451">
+        <v>43</v>
+      </c>
+      <c r="B451">
+        <v>50</v>
+      </c>
+      <c r="C451" t="s">
+        <v>381</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+      <c r="G451" t="s">
+        <v>21</v>
+      </c>
+      <c r="H451" t="s">
+        <v>36</v>
+      </c>
+      <c r="J451" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A452">
+        <v>44</v>
+      </c>
+      <c r="B452">
+        <v>51</v>
+      </c>
+      <c r="C452" t="s">
+        <v>282</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="F452">
+        <v>1</v>
+      </c>
+      <c r="G452" t="s">
+        <v>21</v>
+      </c>
+      <c r="H452" t="s">
+        <v>36</v>
+      </c>
+      <c r="J452" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A453">
+        <v>45</v>
+      </c>
+      <c r="B453">
+        <v>52</v>
+      </c>
+      <c r="C453" t="s">
+        <v>382</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
+      <c r="G453" t="s">
+        <v>21</v>
+      </c>
+      <c r="H453" t="s">
+        <v>36</v>
+      </c>
+      <c r="J453" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A454">
+        <v>46</v>
+      </c>
+      <c r="B454">
+        <v>52</v>
+      </c>
+      <c r="C454" t="s">
+        <v>382</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="F454">
+        <v>1</v>
+      </c>
+      <c r="G454" t="s">
+        <v>21</v>
+      </c>
+      <c r="H454" t="s">
+        <v>36</v>
+      </c>
+      <c r="J454" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A455">
+        <v>47</v>
+      </c>
+      <c r="B455">
+        <v>53</v>
+      </c>
+      <c r="C455" t="s">
+        <v>383</v>
+      </c>
+      <c r="F455">
+        <v>1</v>
+      </c>
+      <c r="G455" t="s">
+        <v>11</v>
+      </c>
+      <c r="H455" t="s">
+        <v>384</v>
+      </c>
+      <c r="J455" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A456">
+        <v>48</v>
+      </c>
+      <c r="B456">
+        <v>53</v>
+      </c>
+      <c r="C456" t="s">
+        <v>383</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+      <c r="G456" t="s">
+        <v>11</v>
+      </c>
+      <c r="H456" t="s">
+        <v>384</v>
+      </c>
+      <c r="J456" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A457">
+        <v>1</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+      <c r="C457" t="s">
+        <v>264</v>
+      </c>
+      <c r="G457" t="s">
+        <v>21</v>
+      </c>
+      <c r="H457" t="s">
+        <v>77</v>
+      </c>
+      <c r="J457" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A458">
+        <v>2</v>
+      </c>
+      <c r="B458">
+        <v>2</v>
+      </c>
+      <c r="C458" t="s">
+        <v>387</v>
+      </c>
+      <c r="G458" t="s">
+        <v>265</v>
+      </c>
+      <c r="H458" t="s">
+        <v>391</v>
+      </c>
+      <c r="J458" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A459">
+        <v>3</v>
+      </c>
+      <c r="B459">
+        <v>3</v>
+      </c>
+      <c r="C459" t="s">
+        <v>388</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
+      <c r="G459" t="s">
+        <v>17</v>
+      </c>
+      <c r="J459" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A460">
+        <v>3</v>
+      </c>
+      <c r="B460">
+        <v>4</v>
+      </c>
+      <c r="C460" t="s">
+        <v>389</v>
+      </c>
+      <c r="E460">
+        <v>1</v>
+      </c>
+      <c r="G460" t="s">
+        <v>390</v>
+      </c>
+      <c r="H460" t="s">
+        <v>391</v>
+      </c>
+      <c r="J460" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A461">
+        <v>4</v>
+      </c>
+      <c r="B461">
+        <v>5</v>
+      </c>
+      <c r="C461" t="s">
+        <v>392</v>
+      </c>
+      <c r="G461" t="s">
+        <v>14</v>
+      </c>
+      <c r="J461" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A462">
+        <v>5</v>
+      </c>
+      <c r="B462">
+        <v>6</v>
+      </c>
+      <c r="C462" t="s">
+        <v>393</v>
+      </c>
+      <c r="G462" t="s">
+        <v>394</v>
+      </c>
+      <c r="H462" t="s">
+        <v>399</v>
+      </c>
+      <c r="J462" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A463">
+        <v>6</v>
+      </c>
+      <c r="B463">
+        <v>7</v>
+      </c>
+      <c r="C463" t="s">
+        <v>395</v>
+      </c>
+      <c r="G463" t="s">
+        <v>14</v>
+      </c>
+      <c r="J463" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A464">
+        <v>7</v>
+      </c>
+      <c r="B464">
+        <v>7</v>
+      </c>
+      <c r="C464" t="s">
+        <v>395</v>
+      </c>
+      <c r="G464" t="s">
+        <v>14</v>
+      </c>
+      <c r="J464" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A465">
+        <v>8</v>
+      </c>
+      <c r="B465">
+        <v>8</v>
+      </c>
+      <c r="C465" t="s">
+        <v>396</v>
+      </c>
+      <c r="G465" t="s">
+        <v>14</v>
+      </c>
+      <c r="H465" t="s">
+        <v>397</v>
+      </c>
+      <c r="J465" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A466">
+        <v>9</v>
+      </c>
+      <c r="B466">
+        <v>9</v>
+      </c>
+      <c r="C466" t="s">
+        <v>398</v>
+      </c>
+      <c r="G466" t="s">
+        <v>394</v>
+      </c>
+      <c r="H466" t="s">
+        <v>391</v>
+      </c>
+      <c r="J466" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A467">
+        <v>10</v>
+      </c>
+      <c r="B467">
+        <v>10</v>
+      </c>
+      <c r="C467" t="s">
+        <v>400</v>
+      </c>
+      <c r="G467" t="s">
+        <v>14</v>
+      </c>
+      <c r="H467" t="s">
+        <v>401</v>
+      </c>
+      <c r="J467" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A468">
+        <v>11</v>
+      </c>
+      <c r="B468">
+        <v>11</v>
+      </c>
+      <c r="C468" t="s">
+        <v>25</v>
+      </c>
+      <c r="G468" t="s">
+        <v>402</v>
+      </c>
+      <c r="H468" t="s">
+        <v>204</v>
+      </c>
+      <c r="J468" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A469">
+        <v>12</v>
+      </c>
+      <c r="B469">
+        <v>12</v>
+      </c>
+      <c r="C469" t="s">
+        <v>25</v>
+      </c>
+      <c r="F469">
+        <v>1</v>
+      </c>
+      <c r="G469" t="s">
+        <v>402</v>
+      </c>
+      <c r="H469" t="s">
+        <v>204</v>
+      </c>
+      <c r="J469" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A470">
+        <v>13</v>
+      </c>
+      <c r="B470">
+        <v>13</v>
+      </c>
+      <c r="C470" t="s">
+        <v>403</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="G470" t="s">
+        <v>389</v>
+      </c>
+      <c r="H470" t="s">
+        <v>391</v>
+      </c>
+      <c r="J470" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A471">
+        <v>13</v>
+      </c>
+      <c r="B471">
+        <v>14</v>
+      </c>
+      <c r="C471" t="s">
+        <v>404</v>
+      </c>
+      <c r="E471">
+        <v>1</v>
+      </c>
+      <c r="G471" t="s">
+        <v>17</v>
+      </c>
+      <c r="J471" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A472">
+        <v>14</v>
+      </c>
+      <c r="B472">
+        <v>15</v>
+      </c>
+      <c r="C472" t="s">
+        <v>393</v>
+      </c>
+      <c r="E472">
+        <v>1</v>
+      </c>
+      <c r="G472" t="s">
+        <v>394</v>
+      </c>
+      <c r="H472" t="s">
+        <v>391</v>
+      </c>
+      <c r="J472" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A473">
+        <v>15</v>
+      </c>
+      <c r="B473">
+        <v>16</v>
+      </c>
+      <c r="C473" t="s">
+        <v>405</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
+      <c r="F473">
+        <v>1</v>
+      </c>
+      <c r="G473" t="s">
+        <v>406</v>
+      </c>
+      <c r="H473" t="s">
+        <v>204</v>
+      </c>
+      <c r="J473" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A474">
+        <v>16</v>
+      </c>
+      <c r="B474">
+        <v>17</v>
+      </c>
+      <c r="C474" t="s">
+        <v>407</v>
+      </c>
+      <c r="G474" t="s">
+        <v>21</v>
+      </c>
+      <c r="H474" t="s">
+        <v>93</v>
+      </c>
+      <c r="J474" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A475">
+        <v>17</v>
+      </c>
+      <c r="B475">
+        <v>18</v>
+      </c>
+      <c r="C475" t="s">
+        <v>336</v>
+      </c>
+      <c r="F475">
+        <v>1</v>
+      </c>
+      <c r="G475" t="s">
+        <v>21</v>
+      </c>
+      <c r="H475" t="s">
+        <v>93</v>
+      </c>
+      <c r="J475" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A476">
+        <v>18</v>
+      </c>
+      <c r="B476">
+        <v>19</v>
+      </c>
+      <c r="C476" t="s">
+        <v>408</v>
+      </c>
+      <c r="E476">
+        <v>1</v>
+      </c>
+      <c r="G476" t="s">
+        <v>17</v>
+      </c>
+      <c r="H476" t="s">
+        <v>137</v>
+      </c>
+      <c r="J476" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A477">
+        <v>18</v>
+      </c>
+      <c r="B477">
+        <v>20</v>
+      </c>
+      <c r="C477" t="s">
+        <v>409</v>
+      </c>
+      <c r="E477">
+        <v>1</v>
+      </c>
+      <c r="G477" t="s">
+        <v>215</v>
+      </c>
+      <c r="H477" t="s">
+        <v>204</v>
+      </c>
+      <c r="J477" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A478">
+        <v>19</v>
+      </c>
+      <c r="B478">
+        <v>21</v>
+      </c>
+      <c r="C478" t="s">
+        <v>373</v>
+      </c>
+      <c r="G478" t="s">
+        <v>215</v>
+      </c>
+      <c r="H478" t="s">
+        <v>204</v>
+      </c>
+      <c r="J478" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A479">
+        <v>20</v>
+      </c>
+      <c r="B479">
+        <v>22</v>
+      </c>
+      <c r="C479" t="s">
+        <v>410</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="G479" t="s">
+        <v>21</v>
+      </c>
+      <c r="H479" t="s">
+        <v>36</v>
+      </c>
+      <c r="J479" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A480">
+        <v>21</v>
+      </c>
+      <c r="B480">
+        <v>23</v>
+      </c>
+      <c r="C480" t="s">
+        <v>411</v>
+      </c>
+      <c r="G480" t="s">
+        <v>412</v>
+      </c>
+      <c r="H480" t="s">
+        <v>17</v>
+      </c>
+      <c r="J480" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A481">
+        <v>22</v>
+      </c>
+      <c r="B481">
+        <v>24</v>
+      </c>
+      <c r="C481" t="s">
+        <v>368</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="G481" t="s">
+        <v>17</v>
+      </c>
+      <c r="H481" t="s">
+        <v>224</v>
+      </c>
+      <c r="J481" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A482">
+        <v>23</v>
+      </c>
+      <c r="B482">
+        <v>25</v>
+      </c>
+      <c r="C482" t="s">
+        <v>413</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+      <c r="G482" t="s">
+        <v>414</v>
+      </c>
+      <c r="J482" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A483">
+        <v>24</v>
+      </c>
+      <c r="B483">
+        <v>25</v>
+      </c>
+      <c r="C483" t="s">
+        <v>413</v>
+      </c>
+      <c r="G483" t="s">
+        <v>414</v>
+      </c>
+      <c r="J483" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A484">
+        <v>25</v>
+      </c>
+      <c r="B484">
+        <v>26</v>
+      </c>
+      <c r="C484" t="s">
+        <v>415</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="G484" t="s">
+        <v>14</v>
+      </c>
+      <c r="J484" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A485">
+        <v>26</v>
+      </c>
+      <c r="B485">
+        <v>27</v>
+      </c>
+      <c r="C485" t="s">
+        <v>416</v>
+      </c>
+      <c r="G485" t="s">
+        <v>17</v>
+      </c>
+      <c r="J485" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A486">
+        <v>27</v>
+      </c>
+      <c r="B486">
+        <v>28</v>
+      </c>
+      <c r="C486" t="s">
+        <v>417</v>
+      </c>
+      <c r="F486">
+        <v>1</v>
+      </c>
+      <c r="G486" t="s">
+        <v>21</v>
+      </c>
+      <c r="H486" t="s">
+        <v>36</v>
+      </c>
+      <c r="J486" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A487">
+        <v>28</v>
+      </c>
+      <c r="B487">
+        <v>28</v>
+      </c>
+      <c r="C487" t="s">
+        <v>417</v>
+      </c>
+      <c r="G487" t="s">
+        <v>21</v>
+      </c>
+      <c r="H487" t="s">
+        <v>36</v>
+      </c>
+      <c r="J487" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A488">
+        <v>29</v>
+      </c>
+      <c r="B488">
+        <v>29</v>
+      </c>
+      <c r="C488" t="s">
+        <v>418</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="G488" t="s">
+        <v>98</v>
+      </c>
+      <c r="H488" t="s">
+        <v>265</v>
+      </c>
+      <c r="J488" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A489">
+        <v>30</v>
+      </c>
+      <c r="B489">
+        <v>29</v>
+      </c>
+      <c r="C489" t="s">
+        <v>418</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
+      <c r="G489" t="s">
+        <v>98</v>
+      </c>
+      <c r="H489" t="s">
+        <v>265</v>
+      </c>
+      <c r="J489" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A490">
+        <v>30</v>
+      </c>
+      <c r="B490">
+        <v>30</v>
+      </c>
+      <c r="C490" t="s">
+        <v>65</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="E490">
+        <v>1</v>
+      </c>
+      <c r="G490" t="s">
+        <v>24</v>
+      </c>
+      <c r="J490" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A491">
+        <v>31</v>
+      </c>
+      <c r="B491">
+        <v>31</v>
+      </c>
+      <c r="C491" t="s">
+        <v>419</v>
+      </c>
+      <c r="F491">
+        <v>1</v>
+      </c>
+      <c r="G491" t="s">
+        <v>14</v>
+      </c>
+      <c r="H491" t="s">
+        <v>420</v>
+      </c>
+      <c r="J491" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A492">
+        <v>32</v>
+      </c>
+      <c r="B492">
+        <v>32</v>
+      </c>
+      <c r="C492" t="s">
+        <v>407</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+      <c r="G492" t="s">
+        <v>98</v>
+      </c>
+      <c r="H492" t="s">
+        <v>265</v>
+      </c>
+      <c r="J492" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A493">
+        <v>33</v>
+      </c>
+      <c r="B493">
+        <v>32</v>
+      </c>
+      <c r="C493" t="s">
+        <v>407</v>
+      </c>
+      <c r="G493" t="s">
+        <v>98</v>
+      </c>
+      <c r="H493" t="s">
+        <v>265</v>
+      </c>
+      <c r="J493" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A494">
+        <v>34</v>
+      </c>
+      <c r="B494">
+        <v>33</v>
+      </c>
+      <c r="C494" t="s">
+        <v>421</v>
+      </c>
+      <c r="F494">
+        <v>1</v>
+      </c>
+      <c r="G494" t="s">
+        <v>401</v>
+      </c>
+      <c r="H494" t="s">
+        <v>422</v>
+      </c>
+      <c r="J494" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A495">
+        <v>35</v>
+      </c>
+      <c r="B495">
+        <v>34</v>
+      </c>
+      <c r="C495" t="s">
+        <v>423</v>
+      </c>
+      <c r="F495">
+        <v>1</v>
+      </c>
+      <c r="G495" t="s">
+        <v>401</v>
+      </c>
+      <c r="H495" t="s">
+        <v>422</v>
+      </c>
+      <c r="J495" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A496">
+        <v>36</v>
+      </c>
+      <c r="B496">
+        <v>34</v>
+      </c>
+      <c r="C496" t="s">
+        <v>423</v>
+      </c>
+      <c r="F496">
+        <v>1</v>
+      </c>
+      <c r="G496" t="s">
+        <v>401</v>
+      </c>
+      <c r="H496" t="s">
+        <v>422</v>
+      </c>
+      <c r="J496" t="s">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
